--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdminSena\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6105BCF0-99BE-48FF-8340-D3BE7C8FBDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9778F80A-5CCC-4F00-9DB6-8C3412CA9D3F}"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="HISTORIAS DE USUARIO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,14 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+  <si>
+    <t>LENZ APP</t>
+  </si>
   <si>
     <t>HISTORIAS DE USUARIO(requerimientos)</t>
   </si>
   <si>
-    <t>LENZ APP</t>
-  </si>
-  <si>
     <t>Caso estudio:</t>
   </si>
   <si>
@@ -60,110 +53,122 @@
     <t>usuario</t>
   </si>
   <si>
+    <t>registrarme en la aplicación con mis datos personales.</t>
+  </si>
+  <si>
+    <t>poder acceder a las funcionalidades de agendamiento.</t>
+  </si>
+  <si>
+    <t>iniciar sesión con mi correo y contraseña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acceder a mi perfil y agendar citas.  </t>
+  </si>
+  <si>
+    <t>seleccionar fecha, hora y tipo de servicio.</t>
+  </si>
+  <si>
+    <t>programar una cita con un tecnico.</t>
+  </si>
+  <si>
+    <t>recibir un correo/SMS al agendar una cita.</t>
+  </si>
+  <si>
+    <t>confirmar los detalles.</t>
+  </si>
+  <si>
+    <t>cancelar una cita desde la APP.</t>
+  </si>
+  <si>
+    <t>liberar mi horario si ya no lo necesito.</t>
+  </si>
+  <si>
+    <t>ver mis citas pasadas.</t>
+  </si>
+  <si>
+    <t>llevar un registro de los servicios.</t>
+  </si>
+  <si>
+    <t>editar mi perfil.</t>
+  </si>
+  <si>
+    <t>cambiar mi informacion personal.</t>
+  </si>
+  <si>
+    <t>ver los horarios disponibles.</t>
+  </si>
+  <si>
+    <t>evitar conflictos de horario con los tecnicos.</t>
+  </si>
+  <si>
     <t>tecnico</t>
   </si>
   <si>
+    <t>ver un listado de mis citas asignadas.</t>
+  </si>
+  <si>
+    <t>organizar mi trabajo.</t>
+  </si>
+  <si>
+    <t>que mis citas se sincronicen con Google Calendar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evitar traslapes y hacer recordatorios.  </t>
+  </si>
+  <si>
     <t>administrador</t>
   </si>
   <si>
+    <t>asignar un técnico a una cita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribuir la carga de trabajo.  </t>
+  </si>
+  <si>
+    <t>gestionar (añadir/editar) los tipos de servicio.</t>
+  </si>
+  <si>
+    <t>ofrecer opciones actualizadas.</t>
+  </si>
+  <si>
+    <t>definir horarios de atencion.</t>
+  </si>
+  <si>
+    <t>que no se agenden citas fuera de ese rango.</t>
+  </si>
+  <si>
     <t>sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">acceder a mi perfil y agendar citas.  </t>
-  </si>
-  <si>
-    <t>seleccionar fecha, hora y tipo de servicio.</t>
-  </si>
-  <si>
-    <t>iniciar sesión con mi correo y contraseña.</t>
-  </si>
-  <si>
-    <t>registrarme en la aplicación con mis datos personales.</t>
-  </si>
-  <si>
-    <t>poder acceder a las funcionalidades de agendamiento.</t>
-  </si>
-  <si>
-    <t>programar una cita con un tecnico.</t>
-  </si>
-  <si>
-    <t>ver un listado de mis citas asignadas</t>
-  </si>
-  <si>
-    <t>organizar mi trabajo.</t>
-  </si>
-  <si>
-    <t>recibir un correo/SMS al agendar una cita.</t>
-  </si>
-  <si>
-    <t>confirmar los detalles.</t>
-  </si>
-  <si>
-    <t>liberar mi horario si ya no lo necesito.</t>
-  </si>
-  <si>
-    <t>cancelar una cita desde la APP.</t>
-  </si>
-  <si>
-    <t>llevar un registro de los servicios.</t>
-  </si>
-  <si>
-    <t>ver mis citas pasadas.</t>
-  </si>
-  <si>
-    <t>ver los horarios disponibles.</t>
-  </si>
-  <si>
-    <t>evitar conflictos de horario con los tecnicos.</t>
-  </si>
-  <si>
-    <t>cambiar mi informacion personal.</t>
-  </si>
-  <si>
-    <t>editar mi perfil.</t>
-  </si>
-  <si>
-    <t>que mis citas se sincronicen con Google Calendar</t>
-  </si>
-  <si>
-    <t>asignar un técnico a una cita</t>
-  </si>
-  <si>
-    <t>gestionar (añadir/editar) los tipos de servicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evitar traslapes y hacer recordatorios.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">distribuir la carga de trabajo.  </t>
-  </si>
-  <si>
-    <t>ofrecer opciones actualizadas.</t>
+    <t xml:space="preserve">enviar recordatorios 24h antes a los técnicos y usuarios para sus citas. </t>
   </si>
   <si>
     <t xml:space="preserve">reducir inasistencias.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">enviar recordatorios 24h antes a los técnicos y usuarios para sus citas. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +176,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,19 +184,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -200,27 +542,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -229,7 +556,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -237,22 +564,22 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -261,37 +588,24 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -301,134 +615,403 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,8 +1029,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,8 +1047,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -473,36 +1056,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -510,43 +1104,89 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -555,21 +1195,15 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91404346-4F71-4675-9016-39B1906FA640}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3952875" y="628650"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="3943350" y="628650"/>
+          <a:ext cx="184150" cy="264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,7 +1282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -681,26 +1315,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -733,23 +1350,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -891,117 +1491,112 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35B1E93-457A-44B8-AA33-2406D8EA5045}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="13.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="29.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="32.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:4">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" ht="23.25" customHeight="1" spans="1:4">
+      <c r="A7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+    <row r="8" ht="46.5" customHeight="1" spans="1:4">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" customHeight="1" spans="1:4">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+    <row r="10" ht="30" spans="1:4">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -1010,149 +1605,163 @@
       <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="D10" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:4">
+      <c r="A11" s="22">
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+        <v>14</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:4">
+      <c r="A12" s="22">
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="C12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="22">
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+        <v>20</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" ht="29.25" customHeight="1" spans="1:4">
+      <c r="A15" s="22">
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:4">
+      <c r="A16" s="22">
+        <v>9</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D16" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>9</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+    <row r="17" ht="30" spans="1:4">
+      <c r="A17" s="22">
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A18" s="30">
+        <v>11</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="C18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" ht="33.75" customHeight="1" spans="1:4">
+      <c r="A19" s="22">
+        <v>12</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>11</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="D19" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26">
-        <v>12</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="29" t="s">
+    <row r="20" ht="30" spans="1:4">
+      <c r="A20" s="33">
+        <v>13</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
-        <v>13</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="28" t="s">
+      <c r="D20" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" ht="45.75" spans="1:4">
+      <c r="A21" s="37">
+        <v>14</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>35</v>
+      <c r="C21" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1162,8 +1771,9 @@
     <mergeCell ref="A5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1172,8 +1782,6 @@
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46018F7-36F2-416F-9330-AADC52FB44C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="HISTORIAS DE USUARIO" sheetId="1" r:id="rId1"/>
+    <sheet name="OBJETIVOS" sheetId="2" r:id="rId1"/>
+    <sheet name="HISTORIAS DE USUARIO" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +28,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
-  <si>
-    <t>LENZ APP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+  <si>
+    <t>MECA ING</t>
+  </si>
+  <si>
+    <t>OBJETIVOS GENERALES Y ESPECIFICOS</t>
+  </si>
+  <si>
+    <t>OBJETIVOS GENERALES</t>
+  </si>
+  <si>
+    <t>OBJETIVOS ESPECIFICOS</t>
+  </si>
+  <si>
+    <t>hacer una app funcional para dispositivos moviles</t>
+  </si>
+  <si>
+    <t>crear un inicio de sesion</t>
+  </si>
+  <si>
+    <t>Hacer que la aplicacion sea compatible con todos los celulares</t>
+  </si>
+  <si>
+    <t>permitir a los administradores de la empresa hacer cositas</t>
   </si>
   <si>
     <t>HISTORIAS DE USUARIO(requerimientos)</t>
@@ -156,7 +178,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -533,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -759,6 +774,88 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -864,152 +961,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1103,12 +1200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,6 +1214,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1497,10 +1627,130 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="31.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="30.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="21.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="44.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75"/>
+    <row r="2" spans="2:3">
+      <c r="B2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" ht="23" customHeight="1" spans="2:3">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:3">
+      <c r="B6" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="2:3">
+      <c r="B7" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="43" customHeight="1" spans="2:3">
+      <c r="B8" s="22"/>
+      <c r="C8" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="31" customHeight="1" spans="2:3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="1" spans="2:3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="26"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="30"/>
+      <c r="C19" s="32"/>
+    </row>
+    <row r="20" ht="15.75" spans="2:3">
+      <c r="B20" s="35"/>
+      <c r="C20" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1527,7 +1777,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1541,7 +1791,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1555,16 +1805,16 @@
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:4">
       <c r="A7" s="19" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="46.5" customHeight="1" spans="1:4">
@@ -1572,13 +1822,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="28.5" customHeight="1" spans="1:4">
@@ -1586,13 +1836,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:4">
@@ -1600,13 +1850,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:4">
@@ -1614,13 +1864,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:4">
@@ -1628,13 +1878,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1642,13 +1892,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1656,13 +1906,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F14" s="29"/>
     </row>
@@ -1671,13 +1921,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
@@ -1685,13 +1935,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
@@ -1699,13 +1949,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:4">
@@ -1713,13 +1963,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="33.75" customHeight="1" spans="1:4">
@@ -1727,41 +1977,41 @@
         <v>12</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
-      <c r="A20" s="33">
+      <c r="A20" s="30">
         <v>13</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>35</v>
+      <c r="B20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="45.75" spans="1:4">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>14</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>38</v>
+      <c r="B21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="OBJETIVOS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>MECA ING</t>
   </si>
@@ -36,22 +36,55 @@
     <t>OBJETIVOS GENERALES Y ESPECIFICOS</t>
   </si>
   <si>
-    <t>OBJETIVOS GENERALES</t>
+    <t>OBJETIVOS GENERAL</t>
   </si>
   <si>
     <t>OBJETIVOS ESPECIFICOS</t>
   </si>
   <si>
-    <t>hacer una app funcional para dispositivos moviles</t>
-  </si>
-  <si>
-    <t>crear un inicio de sesion</t>
-  </si>
-  <si>
-    <t>Hacer que la aplicacion sea compatible con todos los celulares</t>
-  </si>
-  <si>
-    <t>permitir a los administradores de la empresa hacer cositas</t>
+    <t xml:space="preserve">Desarrollar una aplicación móvil funcional y multiplataforma que optimice el proceso de agendamiento de citas entre usuarios y técnicos, garantizando accesibilidad, seguridad y eficiencia en la gestión de servicios.  </t>
+  </si>
+  <si>
+    <t>Implementar un sistema de registro e inicio de sesión para usuarios con datos personales y credenciales (correo/contraseña).</t>
+  </si>
+  <si>
+    <t>Permitir a los usuarios editar su perfil para mantener información actualizada.</t>
+  </si>
+  <si>
+    <t>Habilitar la selección de fecha, hora y tipo de servicio según disponibilidad.</t>
+  </si>
+  <si>
+    <t>Mostrar horarios disponibles en tiempo real para evitar conflictos.</t>
+  </si>
+  <si>
+    <t>Enviar correos/SMS de confirmación al agendar citas.</t>
+  </si>
+  <si>
+    <t>Notificar a técnicos y usuarios con recordatorios 24 horas antes de la cita.</t>
+  </si>
+  <si>
+    <t>Permitir a los usuarios cancelar citas desde la app para liberar horarios.</t>
+  </si>
+  <si>
+    <t>Mostrar historial de citas pasadas para seguimiento.</t>
+  </si>
+  <si>
+    <t>Proporcionar un listado de citas asignadas y sincronización con Google Calendar.</t>
+  </si>
+  <si>
+    <t>Evitar traslapes de horarios mediante sincronización automática.</t>
+  </si>
+  <si>
+    <t>Permitir a los administradores asignar técnicos a citas y gestionar tipos de servicios.</t>
+  </si>
+  <si>
+    <t>Definir horarios de atención para evitar agendamientos fuera de rango.</t>
+  </si>
+  <si>
+    <t>Garantizar que la app sea compatible con todos los dispositivos móviles.</t>
+  </si>
+  <si>
+    <t>Diseñar una interfaz intuitiva que cumpla con las necesidades de usuarios, técnicos y administradores.</t>
   </si>
   <si>
     <t>HISTORIAS DE USUARIO(requerimientos)</t>
@@ -84,7 +117,7 @@
     <t>iniciar sesión con mi correo y contraseña.</t>
   </si>
   <si>
-    <t xml:space="preserve">acceder a mi perfil y agendar citas.  </t>
+    <t>acceder a mi perfil y agendar citas.</t>
   </si>
   <si>
     <t>seleccionar fecha, hora y tipo de servicio.</t>
@@ -135,7 +168,7 @@
     <t>que mis citas se sincronicen con Google Calendar.</t>
   </si>
   <si>
-    <t xml:space="preserve">evitar traslapes y hacer recordatorios.  </t>
+    <t>evitar traslapes y hacer recordatorios.</t>
   </si>
   <si>
     <t>administrador</t>
@@ -144,7 +177,7 @@
     <t>asignar un técnico a una cita.</t>
   </si>
   <si>
-    <t xml:space="preserve">distribuir la carga de trabajo.  </t>
+    <t>distribuir la carga de trabajo.</t>
   </si>
   <si>
     <t>gestionar (añadir/editar) los tipos de servicio.</t>
@@ -162,10 +195,10 @@
     <t>sistema</t>
   </si>
   <si>
-    <t xml:space="preserve">enviar recordatorios 24h antes a los técnicos y usuarios para sus citas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reducir inasistencias.  </t>
+    <t>enviar recordatorios 24h antes a los técnicos y usuarios para sus citas.</t>
+  </si>
+  <si>
+    <t>reducir inasistencias.</t>
   </si>
 </sst>
 </file>
@@ -548,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -816,9 +849,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -829,35 +860,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -982,7 +985,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,34 +997,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,11 +1248,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1629,16 +1632,14 @@
   <sheetPr/>
   <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="31.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="30.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="21.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="44.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="35.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75"/>
@@ -1662,7 +1663,7 @@
       <c r="B5" s="44"/>
       <c r="C5" s="45"/>
     </row>
-    <row r="6" ht="16.5" spans="2:3">
+    <row r="6" ht="15.75" spans="2:3">
       <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
@@ -1670,72 +1671,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="2:3">
+    <row r="7" ht="47" customHeight="1" spans="2:3">
       <c r="B7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="43" customHeight="1" spans="2:3">
-      <c r="B8" s="22"/>
+    <row r="8" ht="33" customHeight="1" spans="2:3">
+      <c r="B8" s="48"/>
       <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="2:3">
-      <c r="B9" s="22"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="11" customHeight="1" spans="2:3">
-      <c r="B10" s="22"/>
-      <c r="C10" s="26"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="26"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="26"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="26"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="26"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="32"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="32"/>
-    </row>
-    <row r="20" ht="15.75" spans="2:3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="50"/>
+    <row r="10" ht="30" customHeight="1" spans="2:3">
+      <c r="B10" s="48"/>
+      <c r="C10" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="2:3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="2:3">
+      <c r="B12" s="48"/>
+      <c r="C12" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="2:3">
+      <c r="B13" s="48"/>
+      <c r="C13" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="2:3">
+      <c r="B14" s="48"/>
+      <c r="C14" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="2:3">
+      <c r="B15" s="48"/>
+      <c r="C15" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="2:3">
+      <c r="B16" s="48"/>
+      <c r="C16" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="2:3">
+      <c r="B17" s="48"/>
+      <c r="C17" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="2:3">
+      <c r="B18" s="48"/>
+      <c r="C18" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="2:3">
+      <c r="B19" s="48"/>
+      <c r="C19" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="45.75" spans="2:3">
+      <c r="B20" s="49"/>
+      <c r="C20" s="50" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="B7:B20"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
   </mergeCells>
@@ -1749,8 +1773,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1777,7 +1801,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1791,7 +1815,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1805,16 +1829,16 @@
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:4">
       <c r="A7" s="19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="46.5" customHeight="1" spans="1:4">
@@ -1822,13 +1846,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="28.5" customHeight="1" spans="1:4">
@@ -1836,13 +1860,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:4">
@@ -1850,13 +1874,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:4">
@@ -1864,13 +1888,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:4">
@@ -1878,13 +1902,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1892,13 +1916,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1906,13 +1930,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F14" s="29"/>
     </row>
@@ -1921,13 +1945,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
@@ -1935,13 +1959,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
@@ -1949,13 +1973,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:4">
@@ -1963,13 +1987,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="33.75" customHeight="1" spans="1:4">
@@ -1977,13 +2001,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
@@ -1991,13 +2015,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="45.75" spans="1:4">
@@ -2005,13 +2029,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>MECA ING</t>
   </si>
@@ -36,55 +36,25 @@
     <t>OBJETIVOS GENERALES Y ESPECIFICOS</t>
   </si>
   <si>
-    <t>OBJETIVOS GENERAL</t>
+    <t>OBJETIVO GENERAL</t>
   </si>
   <si>
     <t>OBJETIVOS ESPECIFICOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrollar una aplicación móvil funcional y multiplataforma que optimice el proceso de agendamiento de citas entre usuarios y técnicos, garantizando accesibilidad, seguridad y eficiencia en la gestión de servicios.  </t>
+    <t>Desarrollar un aplicativo para el agendamiento y seguimiento de servicios de mantenimiento electrico y electronico para la empresa meca ing</t>
   </si>
   <si>
     <t>Implementar un sistema de registro e inicio de sesión para usuarios con datos personales y credenciales (correo/contraseña).</t>
   </si>
   <si>
-    <t>Permitir a los usuarios editar su perfil para mantener información actualizada.</t>
-  </si>
-  <si>
-    <t>Habilitar la selección de fecha, hora y tipo de servicio según disponibilidad.</t>
-  </si>
-  <si>
-    <t>Mostrar horarios disponibles en tiempo real para evitar conflictos.</t>
-  </si>
-  <si>
-    <t>Enviar correos/SMS de confirmación al agendar citas.</t>
-  </si>
-  <si>
     <t>Notificar a técnicos y usuarios con recordatorios 24 horas antes de la cita.</t>
   </si>
   <si>
-    <t>Permitir a los usuarios cancelar citas desde la app para liberar horarios.</t>
-  </si>
-  <si>
-    <t>Mostrar historial de citas pasadas para seguimiento.</t>
-  </si>
-  <si>
-    <t>Proporcionar un listado de citas asignadas y sincronización con Google Calendar.</t>
-  </si>
-  <si>
-    <t>Evitar traslapes de horarios mediante sincronización automática.</t>
-  </si>
-  <si>
-    <t>Permitir a los administradores asignar técnicos a citas y gestionar tipos de servicios.</t>
-  </si>
-  <si>
-    <t>Definir horarios de atención para evitar agendamientos fuera de rango.</t>
-  </si>
-  <si>
-    <t>Garantizar que la app sea compatible con todos los dispositivos móviles.</t>
-  </si>
-  <si>
-    <t>Diseñar una interfaz intuitiva que cumpla con las necesidades de usuarios, técnicos y administradores.</t>
+    <t>Sincronizar las agendas entre usuarios y técnicos para evitar traslapes o duplicidad en los servicios.</t>
+  </si>
+  <si>
+    <t>Visualizar las citas asignadas a los técnicos para su conocimiento y ejecución.</t>
   </si>
   <si>
     <t>HISTORIAS DE USUARIO(requerimientos)</t>
@@ -211,7 +181,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +213,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -581,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -839,28 +815,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -979,133 +933,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,38 +1178,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1630,136 +1582,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C20"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="35.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75"/>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:6">
       <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="2:3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="44"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
     </row>
     <row r="6" ht="15.75" spans="2:3">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="47" customHeight="1" spans="2:3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="2:3">
-      <c r="B8" s="48"/>
+    <row r="8" ht="28" customHeight="1" spans="2:3">
+      <c r="B8" s="47"/>
       <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="31" customHeight="1" spans="2:3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="26" t="s">
+    <row r="9" ht="47" customHeight="1" spans="2:3">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="26" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="30" spans="2:3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="2:3">
-      <c r="B12" s="48"/>
-      <c r="C12" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" ht="30" spans="2:3">
-      <c r="B13" s="48"/>
-      <c r="C13" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" ht="30" spans="2:3">
-      <c r="B14" s="48"/>
-      <c r="C14" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="30" spans="2:3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="2:3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="2:3">
-      <c r="B17" s="48"/>
-      <c r="C17" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="2:3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="2:3">
-      <c r="B19" s="48"/>
-      <c r="C19" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="45.75" spans="2:3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="B7:B10"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
   </mergeCells>
@@ -1801,7 +1694,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1815,7 +1708,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1829,16 +1722,16 @@
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:4">
       <c r="A7" s="19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="46.5" customHeight="1" spans="1:4">
@@ -1846,13 +1739,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="28.5" customHeight="1" spans="1:4">
@@ -1860,13 +1753,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:4">
@@ -1874,13 +1767,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:4">
@@ -1888,13 +1781,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:4">
@@ -1902,13 +1795,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1916,13 +1809,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1930,13 +1823,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F14" s="29"/>
     </row>
@@ -1945,13 +1838,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
@@ -1959,13 +1852,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
@@ -1973,13 +1866,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:4">
@@ -1987,13 +1880,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="33.75" customHeight="1" spans="1:4">
@@ -2001,13 +1894,13 @@
         <v>12</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
@@ -2015,13 +1908,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="45.75" spans="1:4">
@@ -2029,13 +1922,13 @@
         <v>14</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OBJETIVOS" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>MECA ING</t>
   </si>
@@ -69,106 +69,151 @@
     <t>COMO (As)</t>
   </si>
   <si>
-    <t>Deseo(I Want to)</t>
-  </si>
-  <si>
-    <t>Para(so that)</t>
-  </si>
-  <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>registrarme en la aplicación con mis datos personales.</t>
-  </si>
-  <si>
-    <t>poder acceder a las funcionalidades de agendamiento.</t>
-  </si>
-  <si>
-    <t>iniciar sesión con mi correo y contraseña.</t>
-  </si>
-  <si>
-    <t>acceder a mi perfil y agendar citas.</t>
-  </si>
-  <si>
-    <t>seleccionar fecha, hora y tipo de servicio.</t>
-  </si>
-  <si>
-    <t>programar una cita con un tecnico.</t>
-  </si>
-  <si>
-    <t>recibir un correo/SMS al agendar una cita.</t>
-  </si>
-  <si>
-    <t>confirmar los detalles.</t>
-  </si>
-  <si>
-    <t>cancelar una cita desde la APP.</t>
-  </si>
-  <si>
-    <t>liberar mi horario si ya no lo necesito.</t>
-  </si>
-  <si>
-    <t>ver mis citas pasadas.</t>
-  </si>
-  <si>
-    <t>llevar un registro de los servicios.</t>
-  </si>
-  <si>
-    <t>editar mi perfil.</t>
-  </si>
-  <si>
-    <t>cambiar mi informacion personal.</t>
-  </si>
-  <si>
-    <t>ver los horarios disponibles.</t>
-  </si>
-  <si>
-    <t>evitar conflictos de horario con los tecnicos.</t>
-  </si>
-  <si>
-    <t>tecnico</t>
-  </si>
-  <si>
-    <t>ver un listado de mis citas asignadas.</t>
-  </si>
-  <si>
-    <t>organizar mi trabajo.</t>
-  </si>
-  <si>
-    <t>que mis citas se sincronicen con Google Calendar.</t>
-  </si>
-  <si>
-    <t>evitar traslapes y hacer recordatorios.</t>
-  </si>
-  <si>
-    <t>administrador</t>
-  </si>
-  <si>
-    <t>asignar un técnico a una cita.</t>
-  </si>
-  <si>
-    <t>distribuir la carga de trabajo.</t>
-  </si>
-  <si>
-    <t>gestionar (añadir/editar) los tipos de servicio.</t>
-  </si>
-  <si>
-    <t>ofrecer opciones actualizadas.</t>
-  </si>
-  <si>
-    <t>definir horarios de atencion.</t>
-  </si>
-  <si>
-    <t>que no se agenden citas fuera de ese rango.</t>
-  </si>
-  <si>
-    <t>sistema</t>
-  </si>
-  <si>
-    <t>enviar recordatorios 24h antes a los técnicos y usuarios para sus citas.</t>
-  </si>
-  <si>
-    <t>reducir inasistencias.</t>
+    <t>DESEO (I Want to)</t>
+  </si>
+  <si>
+    <t>PARA (So That)</t>
+  </si>
+  <si>
+    <t>Criterios de Evaluación</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Registrarme en la aplicación con mis datos personales.</t>
+  </si>
+  <si>
+    <t>Poder acceder a las funcionalidades de agendamiento.</t>
+  </si>
+  <si>
+    <t>El formulario debe validar campos obligatorios. El registro debe confirmarse por email.</t>
+  </si>
+  <si>
+    <t>Iniciar sesión con mi correo y contraseña.</t>
+  </si>
+  <si>
+    <t>Acceder a mi perfil y agendar citas.</t>
+  </si>
+  <si>
+    <t>El sistema permite login con credenciales validas como el correo y contraseña. Muestra errores si son invalidas.</t>
+  </si>
+  <si>
+    <t>Seleccionar fecha, hora y tipo de servicio.</t>
+  </si>
+  <si>
+    <t>Programar una cita con un técnico.</t>
+  </si>
+  <si>
+    <t>Solo se muestran fechas y horas disponibles. La cita queda registrada correctamente.</t>
+  </si>
+  <si>
+    <t>Recibir un correo/SMS al agendar una cita.</t>
+  </si>
+  <si>
+    <t>Confirmar los detalles.</t>
+  </si>
+  <si>
+    <t>El usuario recibe una notificación inmediata al correo con los datos correctos de la cita.</t>
+  </si>
+  <si>
+    <t>Cancelar una cita desde la app.</t>
+  </si>
+  <si>
+    <t>Liberar mi horario si ya no lo necesito.</t>
+  </si>
+  <si>
+    <t>La cita es eliminada del sistema. Se envía notificación de cancelación.</t>
+  </si>
+  <si>
+    <t>Ver mis citas pasadas.</t>
+  </si>
+  <si>
+    <t>Llevar un registro de los servicios.</t>
+  </si>
+  <si>
+    <t>Se muestra un historial con fechas, servicios y los técnicos.</t>
+  </si>
+  <si>
+    <t>Editar mi perfil.</t>
+  </si>
+  <si>
+    <t>Cambiar mi información personal.</t>
+  </si>
+  <si>
+    <t>El usuario puede actualizar nombre, teléfono, etc. Cambios se guardan correctamente.</t>
+  </si>
+  <si>
+    <t>Ver los horarios disponibles.</t>
+  </si>
+  <si>
+    <t>Evitar conflictos de horario con los técnicos.</t>
+  </si>
+  <si>
+    <t>Solo se muestran horarios libres. Se actualizan en tiempo real si hay cambios.</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>Ver un listado de mis citas asignadas.</t>
+  </si>
+  <si>
+    <t>Organizar mi trabajo.</t>
+  </si>
+  <si>
+    <t>El técnico ve su agenda actualizada y detallada.</t>
+  </si>
+  <si>
+    <t>Que mis citas se sincronicen con Google Calendar.</t>
+  </si>
+  <si>
+    <t>Evitar traslapes y hacer recordatorios.</t>
+  </si>
+  <si>
+    <t>Las citas se sincronizan automáticamente. Se reflejan cambios o cancelaciones.</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Asignar un técnico a una cita.</t>
+  </si>
+  <si>
+    <t>Distribuir la carga de trabajo.</t>
+  </si>
+  <si>
+    <t>El administrador puede asignar o reasignar técnicos. Técnicos son notificados.</t>
+  </si>
+  <si>
+    <t>Gestionar (añadir/editar) los tipos de servicio.</t>
+  </si>
+  <si>
+    <t>Ofrecer opciones actualizadas.</t>
+  </si>
+  <si>
+    <t>El sistema permite agregar y modificar servicios. Se reflejan en el menu de opciones de citas.</t>
+  </si>
+  <si>
+    <t>Definir horarios de atención.</t>
+  </si>
+  <si>
+    <t>Que no se agenden citas fuera de ese rango.</t>
+  </si>
+  <si>
+    <t>El sistema valida las citas dentro de horarios definidos.</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Enviar recordatorios 24h antes a los técnicos y usuarios.</t>
+  </si>
+  <si>
+    <t>Reducir inasistencias.</t>
+  </si>
+  <si>
+    <t>Recordatorios se envían automáticamente por correo/SMS. Incluyen detalles de la cita.</t>
   </si>
 </sst>
 </file>
@@ -557,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -569,28 +614,81 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -600,62 +698,84 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,120 +816,6 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -939,7 +945,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,34 +957,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,7 +1069,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1092,13 +1098,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,41 +1119,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1157,56 +1143,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
@@ -1287,7 +1271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3943350" y="628650"/>
+          <a:off x="3981450" y="619125"/>
           <a:ext cx="184150" cy="264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1582,10 +1566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F10"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1594,59 +1578,60 @@
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15.75"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="2:3">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" ht="15.75" spans="2:3">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="47" customHeight="1" spans="2:3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="2:3">
-      <c r="B8" s="47"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="47" customHeight="1" spans="2:3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:3">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1666,276 +1651,328 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="13.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="29.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="32.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="15.75" spans="1:4">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" ht="15.75" spans="1:4">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" ht="15.75" spans="1:4">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" ht="23.25" customHeight="1" spans="1:4">
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" ht="23.25" customHeight="1" spans="1:5">
       <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" ht="46.5" customHeight="1" spans="1:4">
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1" spans="1:5">
       <c r="A8" s="22">
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" ht="28.5" customHeight="1" spans="1:4">
+      <c r="D8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1" spans="1:5">
       <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="30" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="46" customHeight="1" spans="1:5">
       <c r="A10" s="22">
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="30" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1" spans="1:5">
       <c r="A11" s="22">
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="30" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="1:5">
       <c r="A12" s="22">
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:5">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="47" customHeight="1" spans="1:6">
       <c r="A14" s="22">
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" ht="29.25" customHeight="1" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" ht="47" customHeight="1" spans="1:5">
       <c r="A15" s="22">
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="30" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:5">
       <c r="A16" s="22">
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" ht="30" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="45" spans="1:5">
       <c r="A17" s="22">
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A18" s="30">
+        <v>45</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="44" customHeight="1" spans="1:5">
+      <c r="A18" s="22">
         <v>11</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" ht="33.75" customHeight="1" spans="1:4">
+      <c r="B18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" ht="46" customHeight="1" spans="1:5">
       <c r="A19" s="22">
         <v>12</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" ht="30" spans="1:4">
-      <c r="A20" s="30">
+        <v>52</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="1:5">
+      <c r="A20" s="22">
         <v>13</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" ht="45.75" spans="1:4">
-      <c r="A21" s="35">
+      <c r="B20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" ht="45.75" spans="1:5">
+      <c r="A21" s="26">
         <v>14</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>46</v>
+      <c r="B21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="A5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OBJETIVOS" sheetId="2" r:id="rId1"/>
     <sheet name="HISTORIAS DE USUARIO" sheetId="1" r:id="rId2"/>
+    <sheet name="EVENTOS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>MECA ING</t>
   </si>
@@ -214,6 +215,213 @@
   </si>
   <si>
     <t>Recordatorios se envían automáticamente por correo/SMS. Incluyen detalles de la cita.</t>
+  </si>
+  <si>
+    <t>EVENTOS Y SECUENCIAS DE ACCIONES A REALIZAR</t>
+  </si>
+  <si>
+    <t>MockUp</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Acción (patrón Observer)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>VISTA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONTROLADOR </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Objetos</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Metodos</t>
+    </r>
+  </si>
+  <si>
+    <t>MODELO  (Datos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>OnLoad (carga inicial)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla 1</t>
+  </si>
+  <si>
+    <t>onClick btn Español</t>
+  </si>
+  <si>
+    <t>Cambia de idioma al Español</t>
+  </si>
+  <si>
+    <t>permanece en pantalla 1</t>
+  </si>
+  <si>
+    <t>onClick btn Ingles</t>
+  </si>
+  <si>
+    <t>Cambia de idioma al Ingles</t>
+  </si>
+  <si>
+    <t>onClick btn Get Started</t>
+  </si>
+  <si>
+    <t>Lo llevara a la siguinete pantalla</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla 2</t>
+  </si>
+  <si>
+    <t>OnLoad (Iniciar Sesion)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla 2</t>
+  </si>
+  <si>
+    <t>onClick Email</t>
+  </si>
+  <si>
+    <t>Puede ingresar el correo electronico  ya registrado</t>
+  </si>
+  <si>
+    <t>Si no llega a tener un correo registrado, le votara un error el cual lo tendra en esa misma pantalla</t>
+  </si>
+  <si>
+    <t>permanece en pantalla 2</t>
+  </si>
+  <si>
+    <t>Consultar con BD                                           OK                                                              no OK</t>
+  </si>
+  <si>
+    <t>INICIAR SESION    
+ -Email  
+ -Password</t>
+  </si>
+  <si>
+    <t>onClick Password</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Puede ingresar la contraseña ya registrada</t>
+  </si>
+  <si>
+    <t>Si no llega a tener una contraseña registrada, le votara un error el cual lo tendra en esa misma pantalla</t>
+  </si>
+  <si>
+    <t>Consultar con BD                                OK                                                            no OK</t>
+  </si>
+  <si>
+    <t>INICIAR SESION    
+ -Email
+ -Password</t>
+  </si>
+  <si>
+    <t>onClick btn Iniciar sesion</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla 3</t>
+  </si>
+  <si>
+    <t>Lo llevara a la siguiente pantalla</t>
+  </si>
+  <si>
+    <t>Si no llega a tener ninguna cuenta registrada, le votara un error diciendo "registrar cuenta"</t>
+  </si>
+  <si>
+    <t>INICIAR SESION    
+ -Email 
+ -Password</t>
+  </si>
+  <si>
+    <t>onClick btn Registrarme</t>
+  </si>
+  <si>
+    <t>Lo llevara a la pantalla para que pueda registrarse si no lo ha hecho antes</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla R2</t>
+  </si>
+  <si>
+    <t>Ingresara los datos a una BD</t>
+  </si>
+  <si>
+    <t>llena los campos: INICIAR SESION    
+ -Email  
+ -Password</t>
+  </si>
+  <si>
+    <t>onClick btn Olvide mi contraseña</t>
+  </si>
+  <si>
+    <t>Lo llevara a la pantalla para poder recuperar su contraseña</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla O2</t>
+  </si>
+  <si>
+    <t>ingresara un correo electronico para recuperar su contraseña</t>
+  </si>
+  <si>
+    <t>onLoad (Registrarme)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla R2</t>
+  </si>
+  <si>
+    <t>onClick Full name</t>
+  </si>
+  <si>
+    <t>Podra ingresar su nombre para que quede registrado</t>
+  </si>
+  <si>
+    <t>permanece en pantalla R2</t>
   </si>
 </sst>
 </file>
@@ -226,7 +434,35 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="30">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,8 +643,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +669,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,7 +872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -611,13 +881,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -632,33 +957,30 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -669,78 +991,27 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -756,6 +1027,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -766,10 +1048,126 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -779,22 +1177,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -939,258 +1335,445 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
@@ -1263,7 +1846,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:ext cx="184731" cy="274085"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -1271,8 +1854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="619125"/>
-          <a:ext cx="184150" cy="264160"/>
+          <a:off x="3981450" y="628650"/>
+          <a:ext cx="184150" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1305,6 +1888,137 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2454910</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="619125"/>
+          <a:ext cx="2445385" cy="2316480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>264160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3166110"/>
+          <a:ext cx="2459990" cy="5199380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2457450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8616950"/>
+          <a:ext cx="2457450" cy="3971925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1569,7 +2283,7 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1580,58 +2294,58 @@
   <sheetData>
     <row r="1" ht="15.75"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="112"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="2:3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="117"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
     </row>
     <row r="6" ht="15.75" spans="2:3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="119" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="47" customHeight="1" spans="2:3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="106" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="2:3">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="120"/>
+      <c r="C8" s="106" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="47" customHeight="1" spans="2:3">
-      <c r="B9" s="38"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="120"/>
+      <c r="C9" s="121" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:3">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="123" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1651,8 +2365,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1665,306 +2379,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" ht="15.75" spans="1:5">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:5">
+      <c r="A6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="103" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:5">
-      <c r="A8" s="22">
+      <c r="A8" s="104">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="106" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:5">
-      <c r="A9" s="22">
+      <c r="A9" s="104">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="106" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="46" customHeight="1" spans="1:5">
-      <c r="A10" s="22">
+      <c r="A10" s="104">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="106" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:5">
-      <c r="A11" s="22">
+      <c r="A11" s="104">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="106" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="32" customHeight="1" spans="1:5">
-      <c r="A12" s="22">
+      <c r="A12" s="104">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="106" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:5">
-      <c r="A13" s="22">
+      <c r="A13" s="104">
         <v>6</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="106" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="47" customHeight="1" spans="1:6">
-      <c r="A14" s="22">
+      <c r="A14" s="104">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="107"/>
     </row>
     <row r="15" ht="47" customHeight="1" spans="1:5">
-      <c r="A15" s="22">
+      <c r="A15" s="104">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="106" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="22">
+      <c r="A16" s="104">
         <v>9</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="106" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:5">
-      <c r="A17" s="22">
+      <c r="A17" s="104">
         <v>10</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="106" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="44" customHeight="1" spans="1:5">
-      <c r="A18" s="22">
+      <c r="A18" s="104">
         <v>11</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="106" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" ht="46" customHeight="1" spans="1:5">
-      <c r="A19" s="22">
+      <c r="A19" s="104">
         <v>12</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="106" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:5">
-      <c r="A20" s="22">
+      <c r="A20" s="104">
         <v>13</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="106" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" ht="45.75" spans="1:5">
-      <c r="A21" s="26">
+      <c r="A21" s="108">
         <v>14</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="110" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1975,6 +2689,490 @@
     <mergeCell ref="A5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="26.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="23.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="22"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" ht="26" customHeight="1" spans="2:7">
+      <c r="B10" s="29"/>
+      <c r="C10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:7">
+      <c r="A11" s="32"/>
+      <c r="B11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:7">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="2:7">
+      <c r="B13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="2:7">
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="2:12">
+      <c r="B15" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="44"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
+    </row>
+    <row r="16" ht="62" customHeight="1" spans="2:7">
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="2:11">
+      <c r="B17" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="46"/>
+      <c r="K17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" ht="64" customHeight="1" spans="2:7">
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="58"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" ht="44" customHeight="1" spans="2:7">
+      <c r="B21" s="62"/>
+      <c r="C21" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" ht="33" customHeight="1" spans="2:7">
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="76"/>
+      <c r="C24" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="76"/>
+      <c r="E24" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" ht="49" customHeight="1" spans="2:7">
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="77"/>
+    </row>
+    <row r="26" ht="30" spans="2:7">
+      <c r="B26" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="76"/>
+      <c r="C27" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="78"/>
+    </row>
+    <row r="28" ht="32" customHeight="1" spans="2:7">
+      <c r="B28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="78"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="76"/>
+      <c r="C33" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+    </row>
+    <row r="34" ht="26" customHeight="1" spans="2:7">
+      <c r="B34" s="76"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G36:G37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="5.09375" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>MECA ING</t>
   </si>
@@ -284,6 +284,9 @@
     <t>MODELO  (Datos)</t>
   </si>
   <si>
+    <t>CONSULTAS</t>
+  </si>
+  <si>
     <t xml:space="preserve"> -</t>
   </si>
   <si>
@@ -434,7 +437,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,13 +462,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -660,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,12 +671,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -872,7 +862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -954,6 +944,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -991,6 +994,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1003,17 +1028,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1024,10 +1038,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1335,52 +1349,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1395,77 +1412,74 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1481,161 +1495,138 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1651,129 +1642,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
@@ -1921,7 +1927,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="619125"/>
+          <a:off x="9525" y="609600"/>
           <a:ext cx="2445385" cy="2316480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1963,7 +1969,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3166110"/>
+          <a:off x="9525" y="3156585"/>
           <a:ext cx="2459990" cy="5199380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2005,7 +2011,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8616950"/>
+          <a:off x="0" y="8607425"/>
           <a:ext cx="2457450" cy="3971925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2294,58 +2300,58 @@
   <sheetData>
     <row r="1" ht="15.75"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="C2" s="104"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" ht="23" customHeight="1" spans="2:3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="109"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="109"/>
     </row>
     <row r="6" ht="15.75" spans="2:3">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="111" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" ht="47" customHeight="1" spans="2:3">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="98" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="2:3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="106" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="47" customHeight="1" spans="2:3">
-      <c r="B9" s="120"/>
-      <c r="C9" s="121" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="113" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:3">
-      <c r="B10" s="122"/>
-      <c r="C10" s="123" t="s">
+      <c r="B10" s="114"/>
+      <c r="C10" s="115" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2379,306 +2385,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="86"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="95" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:5">
-      <c r="A8" s="104">
+      <c r="A8" s="96">
         <v>1</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="98" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:5">
-      <c r="A9" s="104">
+      <c r="A9" s="96">
         <v>2</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="98" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" ht="46" customHeight="1" spans="1:5">
-      <c r="A10" s="104">
+      <c r="A10" s="96">
         <v>3</v>
       </c>
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="98" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:5">
-      <c r="A11" s="104">
+      <c r="A11" s="96">
         <v>4</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="98" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" ht="32" customHeight="1" spans="1:5">
-      <c r="A12" s="104">
+      <c r="A12" s="96">
         <v>5</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="98" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:5">
-      <c r="A13" s="104">
+      <c r="A13" s="96">
         <v>6</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="98" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" ht="47" customHeight="1" spans="1:6">
-      <c r="A14" s="104">
+      <c r="A14" s="96">
         <v>7</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="E14" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="107"/>
+      <c r="F14" s="99"/>
     </row>
     <row r="15" ht="47" customHeight="1" spans="1:5">
-      <c r="A15" s="104">
+      <c r="A15" s="96">
         <v>8</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="98" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="104">
+      <c r="A16" s="96">
         <v>9</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="98" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:5">
-      <c r="A17" s="104">
+      <c r="A17" s="96">
         <v>10</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="106" t="s">
+      <c r="E17" s="98" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" ht="44" customHeight="1" spans="1:5">
-      <c r="A18" s="104">
+      <c r="A18" s="96">
         <v>11</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="98" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" ht="46" customHeight="1" spans="1:5">
-      <c r="A19" s="104">
+      <c r="A19" s="96">
         <v>12</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="98" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:5">
-      <c r="A20" s="104">
+      <c r="A20" s="96">
         <v>13</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="98" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" ht="45.75" spans="1:5">
-      <c r="A21" s="108">
+      <c r="A21" s="100">
         <v>14</v>
       </c>
-      <c r="B21" s="109" t="s">
+      <c r="B21" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="C21" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="102" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2700,8 +2706,8 @@
   <sheetPr/>
   <dimension ref="A2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2713,9 +2719,10 @@
     <col min="5" max="5" width="23.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -2724,7 +2731,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.75" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -2746,384 +2753,475 @@
       <c r="G3" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="9" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="70"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="69"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="H7" s="28"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="22"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="26"/>
       <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="9" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="72"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="69"/>
+    </row>
+    <row r="10" ht="26" customHeight="1" spans="2:9">
+      <c r="B10" s="31"/>
+      <c r="C10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" ht="26" customHeight="1" spans="2:7">
-      <c r="B10" s="29"/>
-      <c r="C10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="2:7">
+      <c r="F10" s="32"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="70"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:9">
+      <c r="A11" s="33"/>
+      <c r="B11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="69"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:9">
       <c r="B12" s="35"/>
       <c r="C12" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="19" t="s">
-        <v>80</v>
+      <c r="E12" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="2:7">
-      <c r="B13" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="2:7">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="2:9">
+      <c r="B13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="42"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="69"/>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="2:9">
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" ht="23" customHeight="1" spans="2:12">
-      <c r="B15" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
-    </row>
-    <row r="16" ht="62" customHeight="1" spans="2:7">
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="B15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="69"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="16" ht="62" customHeight="1" spans="2:9">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="D16" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="E16" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="F16" s="47" t="s">
         <v>88</v>
       </c>
+      <c r="G16" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" ht="16" customHeight="1" spans="2:11">
-      <c r="B17" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="46"/>
+      <c r="B17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="69"/>
       <c r="K17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="56" t="s">
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="57" t="s">
-        <v>86</v>
+      <c r="D18" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="58" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" ht="64" customHeight="1" spans="2:7">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="G18" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="71"/>
+    </row>
+    <row r="19" ht="64" customHeight="1" spans="2:9">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="36"/>
-      <c r="G19" s="58"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="60" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="72"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" ht="44" customHeight="1" spans="2:7">
-      <c r="B21" s="62"/>
-      <c r="C21" s="63" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="69"/>
+    </row>
+    <row r="21" ht="44" customHeight="1" spans="2:9">
+      <c r="B21" s="57"/>
+      <c r="C21" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="67" t="s">
+      <c r="D21" s="59" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" ht="33" customHeight="1" spans="2:7">
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="74" t="s">
+      <c r="E21" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="76"/>
-      <c r="C24" s="77" t="s">
+      <c r="H21" s="28"/>
+      <c r="I21" s="71"/>
+    </row>
+    <row r="22" ht="33" customHeight="1" spans="2:9">
+      <c r="B22" s="57"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="72"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="69"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="78" t="s">
+      <c r="D24" s="63"/>
+      <c r="E24" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="77" t="s">
+      <c r="F24" s="65" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" ht="49" customHeight="1" spans="2:7">
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="77"/>
-    </row>
-    <row r="26" ht="30" spans="2:7">
-      <c r="B26" s="79" t="s">
+      <c r="G24" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="76"/>
-      <c r="C27" s="77" t="s">
+      <c r="H24" s="28"/>
+      <c r="I24" s="71"/>
+    </row>
+    <row r="25" ht="49" customHeight="1" spans="2:9">
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="72"/>
+    </row>
+    <row r="26" ht="30" spans="2:9">
+      <c r="B26" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="78" t="s">
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="69"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="80" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="78"/>
-    </row>
-    <row r="28" ht="32" customHeight="1" spans="2:7">
-      <c r="B28" s="76"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="78"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="74" t="s">
+      <c r="F27" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="78" t="s">
+      <c r="G27" s="65"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="71"/>
+    </row>
+    <row r="28" ht="32" customHeight="1" spans="2:9">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="72"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="74" t="s">
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="69"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="76"/>
-      <c r="C33" s="80" t="s">
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="71"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="72"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="69"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="63"/>
+      <c r="C33" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-    </row>
-    <row r="34" ht="26" customHeight="1" spans="2:7">
-      <c r="B34" s="76"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="71"/>
+    </row>
+    <row r="34" ht="26" customHeight="1" spans="2:9">
+      <c r="B34" s="63"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="72"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="69"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="71"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="75">
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B25"/>
@@ -3171,6 +3269,14 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="H36:I37"/>
   </mergeCells>
   <pageMargins left="0.75" right="5.09375" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/ProjectoSena.xlsx
+++ b/ProjectoSena.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="281">
   <si>
     <t>MECA ING</t>
   </si>
@@ -314,7 +314,7 @@
     <t>onClick btn Get Started</t>
   </si>
   <si>
-    <t>Lo llevara a la siguinete pantalla</t>
+    <t>Lo llevara a la siguiente pantalla</t>
   </si>
   <si>
     <t>dirigir hacia pantalla 2</t>
@@ -338,7 +338,7 @@
     <t>permanece en pantalla 2</t>
   </si>
   <si>
-    <t>Consultar con BD                                           OK                                                              no OK</t>
+    <t>Consultar con BD                                   OK                                                              no OK</t>
   </si>
   <si>
     <t>INICIAR SESION    
@@ -349,9 +349,6 @@
     <t>onClick Password</t>
   </si>
   <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>Puede ingresar la contraseña ya registrada</t>
   </si>
   <si>
@@ -369,13 +366,10 @@
     <t>onClick btn Iniciar sesion</t>
   </si>
   <si>
+    <t>Si no llega a tener ninguna cuenta registrada, le votara un error diciendo "cuenta no encontrada/no registrada"</t>
+  </si>
+  <si>
     <t>dirigir hacia pantalla 3</t>
-  </si>
-  <si>
-    <t>Lo llevara a la siguiente pantalla</t>
-  </si>
-  <si>
-    <t>Si no llega a tener ninguna cuenta registrada, le votara un error diciendo "registrar cuenta"</t>
   </si>
   <si>
     <t>INICIAR SESION    
@@ -418,6 +412,9 @@
     <t>mostrar pantalla R2</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>onClick Full name</t>
   </si>
   <si>
@@ -425,6 +422,507 @@
   </si>
   <si>
     <t>permanece en pantalla R2</t>
+  </si>
+  <si>
+    <t>Se agregara a una base de datos</t>
+  </si>
+  <si>
+    <t>podra ingresar un Emal para poder iniciar sesion e ingresar a la app</t>
+  </si>
+  <si>
+    <t>Podra ingresar una contraseña para poder iniciar sesion e ingresar a la app</t>
+  </si>
+  <si>
+    <t>onClick Confirm Password</t>
+  </si>
+  <si>
+    <t>Se tendra que confirmar la contraseña ingresada anteriormente para validar su registro</t>
+  </si>
+  <si>
+    <t>Se confirmara con la contrasña ingresadad en la base de datos</t>
+  </si>
+  <si>
+    <t>onClick bttn Sign Up</t>
+  </si>
+  <si>
+    <t>Lo llevara a la pantalla 2 dejandote iniciar sesion con los datos ya registrados</t>
+  </si>
+  <si>
+    <t>onLoad (Olvide mi Contraseña)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla O2</t>
+  </si>
+  <si>
+    <t>Lo dejara ingresar un correo electronico, el cual le llegara la informacion para poder recuperar su contraseña</t>
+  </si>
+  <si>
+    <t>Si no llega a encontrarse un correo en la base de datos, no se podra recuperar la contraseña</t>
+  </si>
+  <si>
+    <t>Permanecer en pantalla O2</t>
+  </si>
+  <si>
+    <t>Se encontrara en la BD el correo escrito</t>
+  </si>
+  <si>
+    <t>onclick btn Send Instructions</t>
+  </si>
+  <si>
+    <t>El boton lo dejara seguir con su recuperacion de su contraseña</t>
+  </si>
+  <si>
+    <t>onLoad (Menu)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla 3</t>
+  </si>
+  <si>
+    <t>onClick Schedule Appointment</t>
+  </si>
+  <si>
+    <t>El boton lo llevara a el calendario para poder generar fecha, hora y tipo de servicio de su cita</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla A2</t>
+  </si>
+  <si>
+    <t>onClick My Appointment</t>
+  </si>
+  <si>
+    <t>El boton lo llevara a sus citas ya programadas y las que ya pasaron, para poder acordarle sus citas</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla C2</t>
+  </si>
+  <si>
+    <t>onClick Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El boton lo llevara a su perfil para que pueda verificar su informacion </t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla P2</t>
+  </si>
+  <si>
+    <t>onLoad (Agendar Mantenimiento)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla A2</t>
+  </si>
+  <si>
+    <t>onClick Selecciona Hora</t>
+  </si>
+  <si>
+    <t>El boton lo llevara para seleccionar la hora de su cita</t>
+  </si>
+  <si>
+    <t>permanecer en pantalla A2</t>
+  </si>
+  <si>
+    <t>onClick Selecciona tipo de servicio</t>
+  </si>
+  <si>
+    <t>Ell boton lo llevara para seleccionar el tipo de servicio que desea agendar</t>
+  </si>
+  <si>
+    <t>onClick Confirmar</t>
+  </si>
+  <si>
+    <t>El boton confirmara su cita y la agendara en la BD</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla A3</t>
+  </si>
+  <si>
+    <t>onLoad (Payment)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla A3</t>
+  </si>
+  <si>
+    <t>onLoad Order Summary</t>
+  </si>
+  <si>
+    <t>Con esta funcion, se le sumara toda su orden para generarle el total al pagar</t>
+  </si>
+  <si>
+    <t>permanece en pantalla A3</t>
+  </si>
+  <si>
+    <t>onLoad Payment Method</t>
+  </si>
+  <si>
+    <t>Con los botones que aparecen en este apartado, usted podra especificar el metodo el cual usted desea pagar</t>
+  </si>
+  <si>
+    <t>onClick btn Credit/Debit Card</t>
+  </si>
+  <si>
+    <t>Con este boton usted pedira la opcion de pagar con tarjeta de credito  o debito</t>
+  </si>
+  <si>
+    <t>onClick btn PSE</t>
+  </si>
+  <si>
+    <t>Con este boton udtes pedira la opcion de pagar en formato PSE</t>
+  </si>
+  <si>
+    <t>onClick btn Cash on Delivery</t>
+  </si>
+  <si>
+    <t>Con este boton usted pedira la opcion de pagar en efectivo contra entrega</t>
+  </si>
+  <si>
+    <t>Con este boton le confirmara y agendara su cita en la base de datos</t>
+  </si>
+  <si>
+    <t>onLoad (Citas)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla C2</t>
+  </si>
+  <si>
+    <t>onLoad Proximas</t>
+  </si>
+  <si>
+    <t>En este apartado se apreciaran las proximas citas para que el cliente las pueda visualizar y tenerlas presente</t>
+  </si>
+  <si>
+    <t>permanece en pantalla C2</t>
+  </si>
+  <si>
+    <t>onClick btn Cancelar</t>
+  </si>
+  <si>
+    <t>Con este boton usted podra cancelar la cita la cual usted agendó y se eliminara de la base de datos</t>
+  </si>
+  <si>
+    <t>permanece en pantala C2</t>
+  </si>
+  <si>
+    <t>onClick btn Editar</t>
+  </si>
+  <si>
+    <t>Con este boton usted podra editar su cita, dependiendo de su necesidad con el servicio</t>
+  </si>
+  <si>
+    <t>permanecer en pantalla C2</t>
+  </si>
+  <si>
+    <t>onLoad (Perfil)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla P2</t>
+  </si>
+  <si>
+    <t>onClick btn Editar perfil</t>
+  </si>
+  <si>
+    <t>Con este boton usted podra editar su perfil y cambiar su presentacion segun como guste</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla P3</t>
+  </si>
+  <si>
+    <t>onClick btn Citas</t>
+  </si>
+  <si>
+    <t>Con este boton usted podra dirigirse al apartado de sus citas ya programadas</t>
+  </si>
+  <si>
+    <t>onClick btn Preguntas frecuentes</t>
+  </si>
+  <si>
+    <t>Con este boton podra ver las preguntas frecuentes las cuales llegan de muchos mas usuarios</t>
+  </si>
+  <si>
+    <t>permanecer en pantalla P2</t>
+  </si>
+  <si>
+    <t>onClick btn Contactanos</t>
+  </si>
+  <si>
+    <t>Con este boton podras comunicarte con la empresa, ya sea por medio de correo electronico o llamada</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla C3</t>
+  </si>
+  <si>
+    <t>onLoad (Profile Settings)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla P3</t>
+  </si>
+  <si>
+    <t>onClick Name</t>
+  </si>
+  <si>
+    <t>Con esto puede cambiar su nombre el cual esta registrado y se cambiara en la base de datos</t>
+  </si>
+  <si>
+    <t>permanece en pantalla P3</t>
+  </si>
+  <si>
+    <t>Con esto puede cambiar su correo electronico que se tiene registrado y se cambiara ne la base de datos</t>
+  </si>
+  <si>
+    <t>onClick Phone</t>
+  </si>
+  <si>
+    <t>Con esto puede cambiar su numero telefonico que esta registrado y se cambiara en la base de datos</t>
+  </si>
+  <si>
+    <t>onClick addrees</t>
+  </si>
+  <si>
+    <t>Con esto puede cambiar su direccion de residencia que se tiene registrado y se cambiara ne la base de datos</t>
+  </si>
+  <si>
+    <t>onClick City</t>
+  </si>
+  <si>
+    <t>Con esto puede cambiar su ciudad de residencia que se tiene registrado y se cambiara ne la base de datos</t>
+  </si>
+  <si>
+    <t>onClick State</t>
+  </si>
+  <si>
+    <t>Con esto puede cambiar el estado de residencia que tiene registrado y se cambiara en la base de datos</t>
+  </si>
+  <si>
+    <t>onClick btn Save Changes</t>
+  </si>
+  <si>
+    <t>Con este boton se guardaran los cambios que hizo anteriormente</t>
+  </si>
+  <si>
+    <t>onLoad (Contact Us)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla C3</t>
+  </si>
+  <si>
+    <t>onClick Your Name</t>
+  </si>
+  <si>
+    <t>Con esto usted ingresara su nombre para que se sepa la identidad del destinatario del correo</t>
+  </si>
+  <si>
+    <t>permanece en pantalla C3</t>
+  </si>
+  <si>
+    <t>onClick Your Message</t>
+  </si>
+  <si>
+    <t>Con esto usted podra enviar su comentario para que la empresa la pueda leer</t>
+  </si>
+  <si>
+    <t>onLoad Phone</t>
+  </si>
+  <si>
+    <t>Aparece el numero al cual se podra comunicar por via telefonica</t>
+  </si>
+  <si>
+    <t>onLoad Email</t>
+  </si>
+  <si>
+    <t>Aparece el correo electronico el cual se podra comunicar por via Email</t>
+  </si>
+  <si>
+    <t>onLoad Address</t>
+  </si>
+  <si>
+    <t>Aparece la direccion la cual esta ubicada la empresa, para que se pueda comunicar personalmente</t>
+  </si>
+  <si>
+    <t>onclick btn Send</t>
+  </si>
+  <si>
+    <t>Con este boton se enviara el comentario hacia el apartado de servicio al cliente de la empresa</t>
+  </si>
+  <si>
+    <t>APARTADO TECNICO</t>
+  </si>
+  <si>
+    <t>onLoad (Panel Tecnico)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla PT1</t>
+  </si>
+  <si>
+    <t>onLoad Citas Asignadas</t>
+  </si>
+  <si>
+    <t>Con esto, el tecnico podra ver las citas las cuales tiene que hacer su mantenimiento</t>
+  </si>
+  <si>
+    <t>onClick Citas</t>
+  </si>
+  <si>
+    <t>Dependiendo las citas las cuales esten asignadas, el tecnico podra oprimirlas y podra ver los respectivos datos del servicio</t>
+  </si>
+  <si>
+    <t>permanece en pantalla PT1</t>
+  </si>
+  <si>
+    <t>onClick btn Sincronizar Google Calendar</t>
+  </si>
+  <si>
+    <t>Con este boton se soncronizara con su Google Calendar de su dispositivo, para que asi pueda tener mas presentas sus citas y no tener tanto margen de error con ellas</t>
+  </si>
+  <si>
+    <t>APARTADO ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>onLoad (Admin Panel)</t>
+  </si>
+  <si>
+    <t>mostrar pantalla AP1</t>
+  </si>
+  <si>
+    <t>onClick btn Appointment Management</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico podra gestionar las citas dependiendo el tipo de servicio que solicita el cliente</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla GC2</t>
+  </si>
+  <si>
+    <t>onClick btn Service Management</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico mostrara en pantalla cuales son los servicio sdisponibles de la empresa</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla SD2</t>
+  </si>
+  <si>
+    <t>onClick Schedule Management</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico podra gestionar los horarios el cual los tecnicos estan disponibles</t>
+  </si>
+  <si>
+    <t>dirigir hacia la antalla GH2</t>
+  </si>
+  <si>
+    <t>onLoad Assign Technicians</t>
+  </si>
+  <si>
+    <t>mostrar pantalla GC2</t>
+  </si>
+  <si>
+    <t>onClick btn assign</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico asignara el tipo de servicio que tiene por el momento</t>
+  </si>
+  <si>
+    <t>permanecer en pantalla GC2</t>
+  </si>
+  <si>
+    <t>onLoad Servicios disponibles</t>
+  </si>
+  <si>
+    <t>mostrar pantalla SD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>onLoad Mantenimiento Electrico</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico enviara el tipo de servicio que estan disponibles, en este caso Mantenimiento Electrico</t>
+  </si>
+  <si>
+    <t>permanece en pantalla SD2</t>
+  </si>
+  <si>
+    <t>onLoad Instalacion de Sistemas</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico enviara el tipo de servicio que estan disponibles, en este caso Instalacion de sistemas</t>
+  </si>
+  <si>
+    <t>onLoad Reparacion de Equipos</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico enviara el tipo de servicio que estan disponibles, en este caso Reparacion de Equipos</t>
+  </si>
+  <si>
+    <t>onLoad Asesoramiento Tecnico</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico enviara el tipo de servicio que estan disponibles, en este caso Asesoramiento Tecnico</t>
+  </si>
+  <si>
+    <t>onLoad Añadir Servicio</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico podra añadir un servicio nuevo para que los clientes lo puedan adquirir</t>
+  </si>
+  <si>
+    <t>onLoad Manage Schedule</t>
+  </si>
+  <si>
+    <t>mostrar pantalla GH2</t>
+  </si>
+  <si>
+    <t>onClick All Technicians</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico superior enviara a otro tecnico para hacer el respectivo servicio</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla GH3</t>
+  </si>
+  <si>
+    <t>onClick Select Days</t>
+  </si>
+  <si>
+    <t>Con este boton el tecnico mostrara que hora se encuentran disponibles los servicios</t>
+  </si>
+  <si>
+    <t>permanece en pantalla GH2</t>
+  </si>
+  <si>
+    <t>onClick Available Hours</t>
+  </si>
+  <si>
+    <t>Con este boton se gestiona la hora la cual estan disponlibles los tecnicos y servicios</t>
+  </si>
+  <si>
+    <t>onClick Save</t>
+  </si>
+  <si>
+    <t>Con este boton se guardaran los tipos de servicio que hizo el tecnico</t>
+  </si>
+  <si>
+    <t>dirigir hacia pantalla AP1</t>
+  </si>
+  <si>
+    <t>onLoad Asignar Tecnico</t>
+  </si>
+  <si>
+    <t>mostrar pantalla GH3</t>
+  </si>
+  <si>
+    <t>onClick Selecciona un tecnico</t>
+  </si>
+  <si>
+    <t>Con este boton, el tecnico superior elige que tecnico va a hacer el respectivo servicio</t>
+  </si>
+  <si>
+    <t>permanece en pantalla GH3</t>
+  </si>
+  <si>
+    <t>onClick Asignar</t>
+  </si>
+  <si>
+    <t>Con este boton se guardaran los cambios y se agendran en la base de datos</t>
   </si>
 </sst>
 </file>
@@ -437,7 +935,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +960,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -656,12 +1161,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -671,7 +1194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,12 +1326,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -862,7 +1379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -898,43 +1415,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -954,90 +1443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -1051,14 +1456,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1179,6 +1586,19 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1349,112 +1769,106 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1463,10 +1877,10 @@
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1475,186 +1889,104 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1663,25 +1995,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1690,96 +2151,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
@@ -1843,6 +2236,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1852,7 +2252,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="184731" cy="274085"/>
+    <xdr:ext cx="184731" cy="291230"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CuadroTexto 1"/>
@@ -1860,8 +2260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3981450" y="628650"/>
-          <a:ext cx="184150" cy="273685"/>
+          <a:off x="4119880" y="628650"/>
+          <a:ext cx="184150" cy="290830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,8 +2327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="609600"/>
-          <a:ext cx="2445385" cy="2316480"/>
+          <a:off x="9525" y="619125"/>
+          <a:ext cx="2445385" cy="2317750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1946,13 +2346,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>264160</xdr:rowOff>
+      <xdr:rowOff>264159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2540</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>154940</xdr:rowOff>
+      <xdr:rowOff>370416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1969,8 +2369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3156585"/>
-          <a:ext cx="2459990" cy="5199380"/>
+          <a:off x="9525" y="3166745"/>
+          <a:ext cx="2459990" cy="5709285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1988,13 +2388,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2457450</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>370416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2011,8 +2411,584 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8607425"/>
-          <a:ext cx="2457450" cy="3971925"/>
+          <a:off x="0" y="8923655"/>
+          <a:ext cx="2457450" cy="4834890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>17888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3506</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>169930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13825220"/>
+          <a:ext cx="2470150" cy="2675890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>26833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8944</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16548735"/>
+          <a:ext cx="2475865" cy="3547110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="20127595"/>
+          <a:ext cx="2477135" cy="3201670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>353060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="23260685"/>
+          <a:ext cx="2459355" cy="6004560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>387350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5715</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>361315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="29299535"/>
+          <a:ext cx="2465070" cy="3695065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="32988885"/>
+          <a:ext cx="2467610" cy="4740275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>290195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="37725985"/>
+          <a:ext cx="2475230" cy="7922895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>360680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="45650785"/>
+          <a:ext cx="2468245" cy="5935980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>582930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="52165885"/>
+          <a:ext cx="2459355" cy="4456430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2459990</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="57226200"/>
+          <a:ext cx="2459355" cy="4217035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21590</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13970</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21590" y="61418470"/>
+          <a:ext cx="2459355" cy="1688465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2459990</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="63089155"/>
+          <a:ext cx="2459355" cy="6360795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2460625</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270" y="69507735"/>
+          <a:ext cx="2459355" cy="4316730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35560" y="73854945"/>
+          <a:ext cx="2459355" cy="6731000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2286,72 +3262,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="35.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="35.7809523809524" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75"/>
-    <row r="2" spans="2:6">
-      <c r="B2" s="103" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-    </row>
-    <row r="3" ht="23" customHeight="1" spans="2:3">
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
+      <c r="C2" s="88"/>
+    </row>
+    <row r="3" ht="23.1" customHeight="1" spans="2:3">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="109"/>
+      <c r="C4" s="92"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
     </row>
     <row r="6" ht="15.75" spans="2:3">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="94" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" ht="47" customHeight="1" spans="2:3">
-      <c r="B7" s="112" t="s">
+    <row r="7" ht="47.1" customHeight="1" spans="2:3">
+      <c r="B7" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="82" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="28" customHeight="1" spans="2:3">
-      <c r="B8" s="112"/>
-      <c r="C8" s="98" t="s">
+    <row r="8" ht="28.05" customHeight="1" spans="2:3">
+      <c r="B8" s="95"/>
+      <c r="C8" s="82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="47" customHeight="1" spans="2:3">
-      <c r="B9" s="112"/>
-      <c r="C9" s="113" t="s">
+    <row r="9" ht="47.1" customHeight="1" spans="2:3">
+      <c r="B9" s="95"/>
+      <c r="C9" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="98" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2371,320 +3345,320 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.42857142857143" customWidth="1"/>
-    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="29.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="32.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="13.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="29.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="32.7809523809524" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="7" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="79" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:5">
-      <c r="A8" s="96">
+      <c r="A8" s="80">
         <v>1</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="82" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1" spans="1:5">
-      <c r="A9" s="96">
+      <c r="A9" s="80">
         <v>2</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="82" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="46" customHeight="1" spans="1:5">
-      <c r="A10" s="96">
+    <row r="10" ht="46.05" customHeight="1" spans="1:5">
+      <c r="A10" s="80">
         <v>3</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="82" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:5">
-      <c r="A11" s="96">
+      <c r="A11" s="80">
         <v>4</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="82" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="32" customHeight="1" spans="1:5">
-      <c r="A12" s="96">
+    <row r="12" ht="32.1" customHeight="1" spans="1:5">
+      <c r="A12" s="80">
         <v>5</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="82" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:5">
-      <c r="A13" s="96">
+      <c r="A13" s="80">
         <v>6</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="47" customHeight="1" spans="1:6">
-      <c r="A14" s="96">
+    <row r="14" ht="47.1" customHeight="1" spans="1:6">
+      <c r="A14" s="80">
         <v>7</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="99"/>
-    </row>
-    <row r="15" ht="47" customHeight="1" spans="1:5">
-      <c r="A15" s="96">
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" ht="47.1" customHeight="1" spans="1:5">
+      <c r="A15" s="80">
         <v>8</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="82" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:5">
-      <c r="A16" s="96">
+      <c r="A16" s="80">
         <v>9</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="97" t="s">
+      <c r="D16" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="82" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" ht="45" spans="1:5">
-      <c r="A17" s="96">
+      <c r="A17" s="80">
         <v>10</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="82" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" ht="44" customHeight="1" spans="1:5">
-      <c r="A18" s="96">
+    <row r="18" ht="44.1" customHeight="1" spans="1:5">
+      <c r="A18" s="80">
         <v>11</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="82" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" ht="46" customHeight="1" spans="1:5">
-      <c r="A19" s="96">
+    <row r="19" ht="46.05" customHeight="1" spans="1:5">
+      <c r="A19" s="80">
         <v>12</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="82" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:5">
-      <c r="A20" s="96">
+      <c r="A20" s="80">
         <v>13</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="82" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" ht="45.75" spans="1:5">
-      <c r="A21" s="100">
+      <c r="A21" s="84">
         <v>14</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="86" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2704,38 +3678,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L37"/>
+  <dimension ref="A2:R253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="23.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="26.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="23.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="27.0761904761905" customWidth="1"/>
+    <col min="3" max="3" width="26.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="23.2190476190476" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="12.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="20.7809523809524" customWidth="1"/>
+    <col min="8" max="8" width="12.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="15.75" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -2744,464 +3718,3159 @@
       <c r="D3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="69"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="70"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="69"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="71"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="22"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="69"/>
-    </row>
-    <row r="10" ht="26" customHeight="1" spans="2:9">
-      <c r="B10" s="31"/>
-      <c r="C10" s="18" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" ht="26.1" customHeight="1" spans="2:9">
+      <c r="B10" s="20"/>
+      <c r="C10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="70"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="33"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="69"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:9">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="70"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="2:9">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="69"/>
-    </row>
-    <row r="14" ht="22" customHeight="1" spans="2:9">
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" ht="22.05" customHeight="1" spans="2:9">
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="70"/>
-    </row>
-    <row r="15" ht="23" customHeight="1" spans="2:12">
-      <c r="B15" s="10" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" ht="23.1" customHeight="1" spans="2:12">
+      <c r="B15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="69"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
-    </row>
-    <row r="16" ht="62" customHeight="1" spans="2:9">
-      <c r="B16" s="43"/>
-      <c r="C16" s="44" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" ht="75.75" customHeight="1" spans="2:9">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="70"/>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="2:11">
-      <c r="B17" s="10" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" ht="16.05" customHeight="1" spans="2:9">
+      <c r="B17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="69"/>
-      <c r="K17" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="20"/>
+      <c r="C18" s="22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="50"/>
-      <c r="C18" s="51" t="s">
+      <c r="D18" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="E18" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="36" t="s">
+      <c r="G18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" ht="64.05" customHeight="1" spans="2:9">
+      <c r="B19" s="20"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="71"/>
-    </row>
-    <row r="19" ht="64" customHeight="1" spans="2:9">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="72"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="55" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" ht="44.1" customHeight="1" spans="2:9">
+      <c r="B21" s="20"/>
+      <c r="C21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="56" t="s">
+      <c r="E21" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="69"/>
-    </row>
-    <row r="21" ht="44" customHeight="1" spans="2:9">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58" t="s">
+      <c r="F21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" ht="33" customHeight="1" spans="2:9">
+      <c r="B22" s="20"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="54" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" ht="33" customHeight="1" spans="2:9">
-      <c r="B22" s="57"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="72"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="62" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="69"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64" t="s">
+      <c r="F24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="65" t="s">
+      <c r="G24" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" ht="49.05" customHeight="1" spans="2:9">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" ht="40.5" customHeight="1" spans="2:9">
+      <c r="B26" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="64" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" spans="2:9">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" ht="49" customHeight="1" spans="2:9">
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="72"/>
-    </row>
-    <row r="26" ht="30" spans="2:9">
-      <c r="B26" s="66" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="69"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64" t="s">
+      <c r="F27" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="65" t="s">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" ht="32.1" customHeight="1" spans="2:9">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="71"/>
-    </row>
-    <row r="28" ht="32" customHeight="1" spans="2:9">
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="72"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="62" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="69"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="65" t="s">
+      <c r="B32" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="71"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="72"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="62" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="69"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="63"/>
-      <c r="C33" s="67" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64" t="s">
+      <c r="F33" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="71"/>
-    </row>
-    <row r="34" ht="26" customHeight="1" spans="2:9">
-      <c r="B34" s="63"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="72"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" ht="26.1" customHeight="1" spans="2:9">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="69"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="71"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="72"/>
+      <c r="B35" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" ht="18" customHeight="1" spans="2:9">
+      <c r="B36" s="14"/>
+      <c r="C36" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" ht="30.75" customHeight="1" spans="2:9">
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" ht="35.25" customHeight="1" spans="2:9">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" ht="27.75" customHeight="1" spans="2:9">
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" ht="24.75" customHeight="1" spans="2:9">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" ht="39.75" customHeight="1" spans="2:9">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" ht="33" customHeight="1" spans="2:9">
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" ht="33.75" customHeight="1" spans="2:9">
+      <c r="B47" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" ht="24.45" customHeight="1" spans="2:9">
+      <c r="B50" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" ht="31.5" customHeight="1" spans="2:9">
+      <c r="B51" s="29"/>
+      <c r="C51" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+    </row>
+    <row r="52" ht="34.05" customHeight="1" spans="2:9">
+      <c r="B52" s="29"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" ht="30" customHeight="1" spans="2:9">
+      <c r="B54" s="14"/>
+      <c r="C54" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="37"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" ht="30" spans="2:9">
+      <c r="B59" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" ht="31.5" customHeight="1" spans="2:9">
+      <c r="B60" s="34"/>
+      <c r="C60" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" ht="34.5" customHeight="1" spans="2:9">
+      <c r="B61" s="34"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="38"/>
+    </row>
+    <row r="63" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B63" s="29"/>
+      <c r="C63" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" ht="30.45" customHeight="1" spans="2:9">
+      <c r="B64" s="29"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="38"/>
+    </row>
+    <row r="66" ht="22.95" customHeight="1" spans="2:9">
+      <c r="B66" s="29"/>
+      <c r="C66" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" ht="28.5" customHeight="1" spans="2:9">
+      <c r="B67" s="29"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+    </row>
+    <row r="68" ht="30" spans="2:9">
+      <c r="B68" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="37"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" ht="26.55" customHeight="1" spans="2:9">
+      <c r="B72" s="29"/>
+      <c r="C72" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="29"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+    </row>
+    <row r="74" ht="30" spans="2:9">
+      <c r="B74" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" ht="25.05" customHeight="1" spans="2:9">
+      <c r="B75" s="29"/>
+      <c r="C75" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+    </row>
+    <row r="76" ht="25.05" customHeight="1" spans="2:9">
+      <c r="B76" s="29"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" ht="23.55" customHeight="1" spans="2:9">
+      <c r="B78" s="14"/>
+      <c r="C78" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+    </row>
+    <row r="84" ht="28" customHeight="1" spans="2:9">
+      <c r="B84" s="14"/>
+      <c r="C84" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+    </row>
+    <row r="85" ht="28" customHeight="1" spans="2:9">
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+    </row>
+    <row r="87" ht="32" customHeight="1" spans="2:9">
+      <c r="B87" s="14"/>
+      <c r="C87" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+    </row>
+    <row r="88" ht="29" customHeight="1" spans="2:9">
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+    </row>
+    <row r="90" ht="38" customHeight="1" spans="2:9">
+      <c r="B90" s="15"/>
+      <c r="C90" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" ht="25" customHeight="1" spans="2:9">
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+    </row>
+    <row r="93" ht="30" customHeight="1" spans="2:9">
+      <c r="B93" s="14"/>
+      <c r="C93" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+    </row>
+    <row r="96" ht="30" customHeight="1" spans="2:9">
+      <c r="B96" s="15"/>
+      <c r="C96" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+    </row>
+    <row r="97" ht="27" customHeight="1" spans="2:9">
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="42"/>
+      <c r="B98" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+    </row>
+    <row r="99" ht="27" customHeight="1" spans="1:9">
+      <c r="A99" s="42"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" ht="31" customHeight="1" spans="1:9">
+      <c r="A100" s="42"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="42"/>
+      <c r="B101" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="42"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="42"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="42"/>
+      <c r="B104" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+    </row>
+    <row r="105" ht="28" customHeight="1" spans="1:9">
+      <c r="A105" s="42"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+    </row>
+    <row r="106" ht="46" customHeight="1" spans="1:9">
+      <c r="A106" s="42"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="42"/>
+      <c r="B107" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40"/>
+    </row>
+    <row r="108" ht="31" customHeight="1" spans="1:9">
+      <c r="A108" s="42"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+    </row>
+    <row r="109" ht="28" customHeight="1" spans="1:9">
+      <c r="A109" s="42"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="42"/>
+      <c r="B110" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+    </row>
+    <row r="111" ht="39" customHeight="1" spans="1:9">
+      <c r="A111" s="42"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+    </row>
+    <row r="112" ht="30" customHeight="1" spans="1:9">
+      <c r="A112" s="42"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="42"/>
+      <c r="B113" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="37"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="42"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="42"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="42"/>
+      <c r="B116" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="43"/>
+      <c r="I116" s="45"/>
+    </row>
+    <row r="117" ht="29" customHeight="1" spans="1:9">
+      <c r="A117" s="42"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+    </row>
+    <row r="118" ht="31" customHeight="1" spans="1:9">
+      <c r="A118" s="42"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="42"/>
+      <c r="B119" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="43"/>
+      <c r="I119" s="45"/>
+    </row>
+    <row r="120" ht="27" customHeight="1" spans="1:9">
+      <c r="A120" s="42"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+    </row>
+    <row r="121" ht="35" customHeight="1" spans="1:9">
+      <c r="A121" s="42"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+    </row>
+    <row r="122" ht="30" spans="1:9">
+      <c r="A122" s="42"/>
+      <c r="B122" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="45"/>
+    </row>
+    <row r="123" ht="24" customHeight="1" spans="1:9">
+      <c r="A123" s="42"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+    </row>
+    <row r="124" ht="41" customHeight="1" spans="1:9">
+      <c r="A124" s="42"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="42"/>
+      <c r="B125" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="43"/>
+      <c r="I125" s="45"/>
+    </row>
+    <row r="126" ht="40" customHeight="1" spans="1:9">
+      <c r="A126" s="42"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+    </row>
+    <row r="127" ht="24" customHeight="1" spans="1:9">
+      <c r="A127" s="42"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="42"/>
+      <c r="B128" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="37"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="42"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="42"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:9">
+      <c r="A131" s="42"/>
+      <c r="B131" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="H131" s="47"/>
+      <c r="I131" s="53"/>
+    </row>
+    <row r="132" ht="32" customHeight="1" spans="1:9">
+      <c r="A132" s="42"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+    </row>
+    <row r="133" ht="32" customHeight="1" spans="1:9">
+      <c r="A133" s="42"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="42"/>
+      <c r="B134" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C134" s="46"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="53"/>
+    </row>
+    <row r="135" ht="32" customHeight="1" spans="1:9">
+      <c r="A135" s="42"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+    </row>
+    <row r="136" ht="28" customHeight="1" spans="1:9">
+      <c r="A136" s="42"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="42"/>
+      <c r="B137" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" s="46"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="46"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="46"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="53"/>
+    </row>
+    <row r="138" ht="37" customHeight="1" spans="1:9">
+      <c r="A138" s="42"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+    </row>
+    <row r="139" ht="33" customHeight="1" spans="1:9">
+      <c r="A139" s="42"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="42"/>
+      <c r="B140" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C140" s="46"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="53"/>
+    </row>
+    <row r="141" ht="38" customHeight="1" spans="1:9">
+      <c r="A141" s="42"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+    </row>
+    <row r="142" ht="36" customHeight="1" spans="1:9">
+      <c r="A142" s="42"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="42"/>
+      <c r="B143" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C143" s="44"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="54"/>
+    </row>
+    <row r="144" ht="33" customHeight="1" spans="1:9">
+      <c r="A144" s="42"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+    </row>
+    <row r="145" ht="41" customHeight="1" spans="1:9">
+      <c r="A145" s="42"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="42"/>
+      <c r="B146" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="54"/>
+    </row>
+    <row r="147" ht="34" customHeight="1" spans="1:9">
+      <c r="A147" s="42"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+    </row>
+    <row r="148" ht="47" customHeight="1" spans="1:9">
+      <c r="A148" s="42"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="42"/>
+      <c r="B149" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="54"/>
+    </row>
+    <row r="150" ht="28" customHeight="1" spans="1:9">
+      <c r="A150" s="42"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+    </row>
+    <row r="151" ht="23" customHeight="1" spans="1:9">
+      <c r="A151" s="42"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="42"/>
+      <c r="B152" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="37"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="42"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="42"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="42"/>
+      <c r="B155" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="39"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="39"/>
+      <c r="G155" s="39"/>
+      <c r="H155" s="43"/>
+      <c r="I155" s="45"/>
+    </row>
+    <row r="156" ht="35" customHeight="1" spans="1:9">
+      <c r="A156" s="42"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+    </row>
+    <row r="157" ht="37" customHeight="1" spans="1:9">
+      <c r="A157" s="42"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="42"/>
+      <c r="B158" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C158" s="39"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="39"/>
+      <c r="F158" s="39"/>
+      <c r="G158" s="39"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="45"/>
+    </row>
+    <row r="159" ht="30" customHeight="1" spans="1:9">
+      <c r="A159" s="42"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+    </row>
+    <row r="160" ht="18" customHeight="1" spans="1:9">
+      <c r="A160" s="42"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="42"/>
+      <c r="B161" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C161" s="39"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
+      <c r="G161" s="39"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="45"/>
+    </row>
+    <row r="162" ht="23" customHeight="1" spans="1:9">
+      <c r="A162" s="42"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+    </row>
+    <row r="163" ht="23" customHeight="1" spans="1:9">
+      <c r="A163" s="42"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="42"/>
+      <c r="B164" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C164" s="39"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="45"/>
+    </row>
+    <row r="165" ht="24" customHeight="1" spans="1:9">
+      <c r="A165" s="42"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+    </row>
+    <row r="166" ht="25" customHeight="1" spans="1:9">
+      <c r="A166" s="42"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="42"/>
+      <c r="B167" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
+      <c r="G167" s="39"/>
+      <c r="H167" s="43"/>
+      <c r="I167" s="45"/>
+    </row>
+    <row r="168" ht="28" customHeight="1" spans="1:9">
+      <c r="A168" s="42"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+    </row>
+    <row r="169" ht="31" customHeight="1" spans="1:9">
+      <c r="A169" s="42"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="42"/>
+      <c r="B170" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C170" s="39"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="39"/>
+      <c r="G170" s="39"/>
+      <c r="H170" s="43"/>
+      <c r="I170" s="45"/>
+    </row>
+    <row r="171" ht="30" customHeight="1" spans="1:9">
+      <c r="A171" s="42"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+    </row>
+    <row r="172" ht="29" customHeight="1" spans="1:9">
+      <c r="A172" s="42"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B173" s="50"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="50"/>
+      <c r="I173" s="50"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="50"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="50"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="50"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="50"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="42"/>
+      <c r="B176" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="37"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="42"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="42"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="42"/>
+      <c r="B179" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="46"/>
+      <c r="H179" s="47"/>
+      <c r="I179" s="53"/>
+    </row>
+    <row r="180" ht="22" customHeight="1" spans="1:9">
+      <c r="A180" s="42"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+    </row>
+    <row r="181" ht="33" customHeight="1" spans="1:9">
+      <c r="A181" s="42"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="42"/>
+      <c r="B182" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="47"/>
+      <c r="I182" s="53"/>
+    </row>
+    <row r="183" ht="40" customHeight="1" spans="1:9">
+      <c r="A183" s="42"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+    </row>
+    <row r="184" ht="51" customHeight="1" spans="1:9">
+      <c r="A184" s="42"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+    </row>
+    <row r="185" ht="30" spans="1:9">
+      <c r="A185" s="42"/>
+      <c r="B185" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185" s="46"/>
+      <c r="D185" s="46"/>
+      <c r="E185" s="46"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="46"/>
+      <c r="H185" s="47"/>
+      <c r="I185" s="53"/>
+    </row>
+    <row r="186" ht="54" customHeight="1" spans="1:9">
+      <c r="A186" s="42"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+    </row>
+    <row r="187" ht="49" customHeight="1" spans="1:9">
+      <c r="A187" s="42"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="B188" s="50"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="50"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
+      <c r="I189" s="50"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="50"/>
+      <c r="B190" s="50"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="50"/>
+      <c r="I190" s="50"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="42"/>
+      <c r="B191" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C191" s="51"/>
+      <c r="D191" s="51"/>
+      <c r="E191" s="51"/>
+      <c r="F191" s="51"/>
+      <c r="G191" s="51"/>
+      <c r="H191" s="52"/>
+      <c r="I191" s="55"/>
+    </row>
+    <row r="192" ht="42" customHeight="1" spans="1:9">
+      <c r="A192" s="42"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
+    </row>
+    <row r="193" ht="33" customHeight="1" spans="1:9">
+      <c r="A193" s="42"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+    </row>
+    <row r="194" ht="30" spans="1:9">
+      <c r="A194" s="42"/>
+      <c r="B194" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C194" s="56"/>
+      <c r="D194" s="56"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="58"/>
+    </row>
+    <row r="195" ht="34" customHeight="1" spans="1:9">
+      <c r="A195" s="42"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+    </row>
+    <row r="196" ht="25" customHeight="1" spans="1:9">
+      <c r="A196" s="42"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+    </row>
+    <row r="197" ht="30" spans="1:9">
+      <c r="A197" s="42"/>
+      <c r="B197" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C197" s="56"/>
+      <c r="D197" s="56"/>
+      <c r="E197" s="56"/>
+      <c r="F197" s="56"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="58"/>
+    </row>
+    <row r="198" ht="31" customHeight="1" spans="1:9">
+      <c r="A198" s="42"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+    </row>
+    <row r="199" ht="32" customHeight="1" spans="1:9">
+      <c r="A199" s="42"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+    </row>
+    <row r="200" ht="30" spans="1:9">
+      <c r="A200" s="42"/>
+      <c r="B200" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C200" s="56"/>
+      <c r="D200" s="56"/>
+      <c r="E200" s="56"/>
+      <c r="F200" s="56"/>
+      <c r="G200" s="56"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="58"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="42"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="42"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="15"/>
+    </row>
+    <row r="203" ht="31" customHeight="1" spans="1:9">
+      <c r="A203" s="42"/>
+      <c r="B203" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" s="51"/>
+      <c r="D203" s="51"/>
+      <c r="E203" s="51"/>
+      <c r="F203" s="51"/>
+      <c r="G203" s="51"/>
+      <c r="H203" s="52"/>
+      <c r="I203" s="55"/>
+    </row>
+    <row r="204" ht="29" customHeight="1" spans="1:9">
+      <c r="A204" s="42"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+    </row>
+    <row r="205" ht="26" customHeight="1" spans="1:9">
+      <c r="A205" s="42"/>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="15"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="42"/>
+      <c r="B206" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C206" s="56"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="56"/>
+      <c r="F206" s="56"/>
+      <c r="G206" s="56"/>
+      <c r="H206" s="57"/>
+      <c r="I206" s="58"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="42"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="42"/>
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="15"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="42"/>
+      <c r="B209" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="C209" s="51"/>
+      <c r="D209" s="51"/>
+      <c r="E209" s="51"/>
+      <c r="F209" s="51"/>
+      <c r="G209" s="51"/>
+      <c r="H209" s="52"/>
+      <c r="I209" s="55"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="42"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+    </row>
+    <row r="211" spans="1:18">
+      <c r="A211" s="42"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
+      <c r="R211" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="212" ht="34" customHeight="1" spans="1:9">
+      <c r="A212" s="42"/>
+      <c r="B212" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C212" s="56"/>
+      <c r="D212" s="56"/>
+      <c r="E212" s="56"/>
+      <c r="F212" s="56"/>
+      <c r="G212" s="56"/>
+      <c r="H212" s="57"/>
+      <c r="I212" s="58"/>
+    </row>
+    <row r="213" ht="39" customHeight="1" spans="1:9">
+      <c r="A213" s="42"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="15"/>
+    </row>
+    <row r="214" ht="33" customHeight="1" spans="1:9">
+      <c r="A214" s="42"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="15"/>
+    </row>
+    <row r="215" ht="35" customHeight="1" spans="1:9">
+      <c r="A215" s="42"/>
+      <c r="B215" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="C215" s="56"/>
+      <c r="D215" s="56"/>
+      <c r="E215" s="56"/>
+      <c r="F215" s="56"/>
+      <c r="G215" s="56"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="58"/>
+    </row>
+    <row r="216" ht="41" customHeight="1" spans="1:9">
+      <c r="A216" s="42"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="15"/>
+      <c r="I216" s="15"/>
+    </row>
+    <row r="217" ht="33" customHeight="1" spans="1:9">
+      <c r="A217" s="42"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
+      <c r="I217" s="15"/>
+    </row>
+    <row r="218" ht="30" spans="1:9">
+      <c r="A218" s="42"/>
+      <c r="B218" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C218" s="56"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="56"/>
+      <c r="F218" s="56"/>
+      <c r="G218" s="56"/>
+      <c r="H218" s="57"/>
+      <c r="I218" s="58"/>
+    </row>
+    <row r="219" ht="40" customHeight="1" spans="1:9">
+      <c r="A219" s="42"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="15"/>
+      <c r="I219" s="15"/>
+    </row>
+    <row r="220" ht="36" customHeight="1" spans="1:9">
+      <c r="A220" s="42"/>
+      <c r="B220" s="15"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="15"/>
+      <c r="I220" s="15"/>
+    </row>
+    <row r="221" ht="30" spans="1:9">
+      <c r="A221" s="42"/>
+      <c r="B221" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C221" s="56"/>
+      <c r="D221" s="56"/>
+      <c r="E221" s="56"/>
+      <c r="F221" s="56"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="57"/>
+      <c r="I221" s="58"/>
+    </row>
+    <row r="222" ht="30" customHeight="1" spans="1:9">
+      <c r="A222" s="42"/>
+      <c r="B222" s="15"/>
+      <c r="C222" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="15"/>
+      <c r="I222" s="15"/>
+    </row>
+    <row r="223" ht="33" customHeight="1" spans="1:9">
+      <c r="A223" s="42"/>
+      <c r="B223" s="15"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
+      <c r="H223" s="15"/>
+      <c r="I223" s="15"/>
+    </row>
+    <row r="224" spans="2:9">
+      <c r="B224" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C224" s="56"/>
+      <c r="D224" s="56"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="56"/>
+      <c r="G224" s="56"/>
+      <c r="H224" s="57"/>
+      <c r="I224" s="58"/>
+    </row>
+    <row r="225" spans="2:9">
+      <c r="B225" s="15"/>
+      <c r="C225" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
+      <c r="H225" s="15"/>
+      <c r="I225" s="15"/>
+    </row>
+    <row r="226" spans="2:9">
+      <c r="B226" s="15"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="15"/>
+      <c r="I226" s="15"/>
+    </row>
+    <row r="227" spans="2:9">
+      <c r="B227" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C227" s="51"/>
+      <c r="D227" s="51"/>
+      <c r="E227" s="51"/>
+      <c r="F227" s="51"/>
+      <c r="G227" s="51"/>
+      <c r="H227" s="52"/>
+      <c r="I227" s="55"/>
+    </row>
+    <row r="228" ht="40" customHeight="1" spans="2:9">
+      <c r="B228" s="15"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F228" s="15"/>
+      <c r="G228" s="15"/>
+      <c r="H228" s="15"/>
+      <c r="I228" s="15"/>
+    </row>
+    <row r="229" ht="28" customHeight="1" spans="2:9">
+      <c r="B229" s="15"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15"/>
+      <c r="F229" s="15"/>
+      <c r="G229" s="15"/>
+      <c r="H229" s="15"/>
+      <c r="I229" s="15"/>
+    </row>
+    <row r="230" spans="2:9">
+      <c r="B230" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C230" s="56"/>
+      <c r="D230" s="56"/>
+      <c r="E230" s="56"/>
+      <c r="F230" s="56"/>
+      <c r="G230" s="56"/>
+      <c r="H230" s="57"/>
+      <c r="I230" s="58"/>
+    </row>
+    <row r="231" ht="29" customHeight="1" spans="2:9">
+      <c r="B231" s="15"/>
+      <c r="C231" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F231" s="15"/>
+      <c r="G231" s="15"/>
+      <c r="H231" s="15"/>
+      <c r="I231" s="15"/>
+    </row>
+    <row r="232" ht="32" customHeight="1" spans="2:9">
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="15"/>
+      <c r="I232" s="15"/>
+    </row>
+    <row r="233" spans="2:9">
+      <c r="B233" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C233" s="56"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="57"/>
+      <c r="I233" s="58"/>
+    </row>
+    <row r="234" ht="35" customHeight="1" spans="2:9">
+      <c r="B234" s="15"/>
+      <c r="C234" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+      <c r="I234" s="15"/>
+    </row>
+    <row r="235" ht="23" customHeight="1" spans="2:9">
+      <c r="B235" s="15"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="15"/>
+      <c r="I235" s="15"/>
+    </row>
+    <row r="236" spans="2:9">
+      <c r="B236" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C236" s="56"/>
+      <c r="D236" s="56"/>
+      <c r="E236" s="56"/>
+      <c r="F236" s="56"/>
+      <c r="G236" s="56"/>
+      <c r="H236" s="57"/>
+      <c r="I236" s="58"/>
+    </row>
+    <row r="237" ht="38" customHeight="1" spans="2:9">
+      <c r="B237" s="15"/>
+      <c r="C237" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="15"/>
+      <c r="I237" s="15"/>
+    </row>
+    <row r="238" spans="2:9">
+      <c r="B238" s="15"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="15"/>
+      <c r="I238" s="15"/>
+    </row>
+    <row r="239" spans="2:9">
+      <c r="B239" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C239" s="56"/>
+      <c r="D239" s="56"/>
+      <c r="E239" s="56"/>
+      <c r="F239" s="56"/>
+      <c r="G239" s="56"/>
+      <c r="H239" s="57"/>
+      <c r="I239" s="58"/>
+    </row>
+    <row r="240" spans="2:9">
+      <c r="B240" s="15"/>
+      <c r="C240" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="15"/>
+      <c r="I240" s="15"/>
+    </row>
+    <row r="241" spans="2:9">
+      <c r="B241" s="15"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="15"/>
+      <c r="I241" s="15"/>
+    </row>
+    <row r="242" spans="2:9">
+      <c r="B242" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C242" s="51"/>
+      <c r="D242" s="51"/>
+      <c r="E242" s="51"/>
+      <c r="F242" s="51"/>
+      <c r="G242" s="51"/>
+      <c r="H242" s="52"/>
+      <c r="I242" s="55"/>
+    </row>
+    <row r="243" ht="34" customHeight="1" spans="2:9">
+      <c r="B243" s="15"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F243" s="15"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="15"/>
+      <c r="I243" s="15"/>
+    </row>
+    <row r="244" ht="25" customHeight="1" spans="2:9">
+      <c r="B244" s="15"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+      <c r="I244" s="15"/>
+    </row>
+    <row r="245" spans="2:9">
+      <c r="B245" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C245" s="56"/>
+      <c r="D245" s="56"/>
+      <c r="E245" s="56"/>
+      <c r="F245" s="56"/>
+      <c r="G245" s="56"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="58"/>
+    </row>
+    <row r="246" spans="2:9">
+      <c r="B246" s="15"/>
+      <c r="C246" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
+      <c r="H246" s="15"/>
+      <c r="I246" s="15"/>
+    </row>
+    <row r="247" spans="2:9">
+      <c r="B247" s="15"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="15"/>
+      <c r="I247" s="15"/>
+    </row>
+    <row r="248" spans="2:9">
+      <c r="B248" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C248" s="56"/>
+      <c r="D248" s="56"/>
+      <c r="E248" s="56"/>
+      <c r="F248" s="56"/>
+      <c r="G248" s="56"/>
+      <c r="H248" s="57"/>
+      <c r="I248" s="58"/>
+    </row>
+    <row r="249" spans="2:9">
+      <c r="B249" s="15"/>
+      <c r="C249" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="15"/>
+      <c r="I249" s="15"/>
+    </row>
+    <row r="250" spans="2:9">
+      <c r="B250" s="15"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="15"/>
+      <c r="I250" s="15"/>
+    </row>
+    <row r="251" spans="2:9">
+      <c r="B251" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C251" s="56"/>
+      <c r="D251" s="56"/>
+      <c r="E251" s="56"/>
+      <c r="F251" s="56"/>
+      <c r="G251" s="56"/>
+      <c r="H251" s="57"/>
+      <c r="I251" s="58"/>
+    </row>
+    <row r="252" spans="2:9">
+      <c r="B252" s="15"/>
+      <c r="C252" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="F252" s="15"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="15"/>
+      <c r="I252" s="15"/>
+    </row>
+    <row r="253" spans="2:9">
+      <c r="B253" s="15"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="15"/>
+      <c r="H253" s="15"/>
+      <c r="I253" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="636">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
@@ -3222,6 +6891,75 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="H248:I248"/>
+    <mergeCell ref="H251:I251"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B25"/>
@@ -3229,6 +6967,76 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B252:B253"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -3237,6 +7045,76 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C252:C253"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D21:D22"/>
@@ -3245,6 +7123,76 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="D222:D223"/>
+    <mergeCell ref="D225:D226"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="D231:D232"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="D237:D238"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="D243:D244"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="D252:D253"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E21:E22"/>
@@ -3253,6 +7201,76 @@
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="E225:E226"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="E231:E232"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="E237:E238"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="E246:E247"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="E252:E253"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F21:F22"/>
@@ -3261,6 +7279,76 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="F192:F193"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="F204:F205"/>
+    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="F222:F223"/>
+    <mergeCell ref="F225:F226"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="F231:F232"/>
+    <mergeCell ref="F234:F235"/>
+    <mergeCell ref="F237:F238"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="F246:F247"/>
+    <mergeCell ref="F249:F250"/>
+    <mergeCell ref="F252:F253"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G21:G22"/>
@@ -3269,6 +7357,90 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="G153:G154"/>
+    <mergeCell ref="G156:G157"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="G162:G163"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="G180:G181"/>
+    <mergeCell ref="G183:G184"/>
+    <mergeCell ref="G186:G187"/>
+    <mergeCell ref="G192:G193"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="G198:G199"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="G207:G208"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="G216:G217"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="G222:G223"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="G228:G229"/>
+    <mergeCell ref="G231:G232"/>
+    <mergeCell ref="G234:G235"/>
+    <mergeCell ref="G237:G238"/>
+    <mergeCell ref="G240:G241"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="G246:G247"/>
+    <mergeCell ref="G249:G250"/>
+    <mergeCell ref="G252:G253"/>
+    <mergeCell ref="H87:I88"/>
+    <mergeCell ref="H81:I82"/>
+    <mergeCell ref="H84:I85"/>
+    <mergeCell ref="H75:I76"/>
+    <mergeCell ref="H78:I79"/>
+    <mergeCell ref="H69:I70"/>
+    <mergeCell ref="H72:I73"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="H57:I58"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="H54:I55"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="H36:I37"/>
     <mergeCell ref="H7:I8"/>
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="H21:I22"/>
@@ -3276,7 +7448,65 @@
     <mergeCell ref="H27:I28"/>
     <mergeCell ref="H30:I31"/>
     <mergeCell ref="H33:I34"/>
-    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="H90:I91"/>
+    <mergeCell ref="H93:I94"/>
+    <mergeCell ref="H96:I97"/>
+    <mergeCell ref="H99:I100"/>
+    <mergeCell ref="H102:I103"/>
+    <mergeCell ref="H105:I106"/>
+    <mergeCell ref="H108:I109"/>
+    <mergeCell ref="H111:I112"/>
+    <mergeCell ref="H114:I115"/>
+    <mergeCell ref="H117:I118"/>
+    <mergeCell ref="H120:I121"/>
+    <mergeCell ref="H123:I124"/>
+    <mergeCell ref="H126:I127"/>
+    <mergeCell ref="H129:I130"/>
+    <mergeCell ref="H132:I133"/>
+    <mergeCell ref="H135:I136"/>
+    <mergeCell ref="H138:I139"/>
+    <mergeCell ref="H141:I142"/>
+    <mergeCell ref="H144:I145"/>
+    <mergeCell ref="H147:I148"/>
+    <mergeCell ref="H150:I151"/>
+    <mergeCell ref="H153:I154"/>
+    <mergeCell ref="H156:I157"/>
+    <mergeCell ref="H159:I160"/>
+    <mergeCell ref="H162:I163"/>
+    <mergeCell ref="H165:I166"/>
+    <mergeCell ref="H168:I169"/>
+    <mergeCell ref="H171:I172"/>
+    <mergeCell ref="A173:I175"/>
+    <mergeCell ref="H177:I178"/>
+    <mergeCell ref="H180:I181"/>
+    <mergeCell ref="H183:I184"/>
+    <mergeCell ref="H186:I187"/>
+    <mergeCell ref="H192:I193"/>
+    <mergeCell ref="H195:I196"/>
+    <mergeCell ref="H198:I199"/>
+    <mergeCell ref="H201:I202"/>
+    <mergeCell ref="H204:I205"/>
+    <mergeCell ref="H207:I208"/>
+    <mergeCell ref="H210:I211"/>
+    <mergeCell ref="H213:I214"/>
+    <mergeCell ref="H216:I217"/>
+    <mergeCell ref="H219:I220"/>
+    <mergeCell ref="H222:I223"/>
+    <mergeCell ref="H225:I226"/>
+    <mergeCell ref="H228:I229"/>
+    <mergeCell ref="H231:I232"/>
+    <mergeCell ref="H234:I235"/>
+    <mergeCell ref="H237:I238"/>
+    <mergeCell ref="H240:I241"/>
+    <mergeCell ref="H243:I244"/>
+    <mergeCell ref="H246:I247"/>
+    <mergeCell ref="H249:I250"/>
+    <mergeCell ref="H252:I253"/>
+    <mergeCell ref="A188:I190"/>
   </mergeCells>
   <pageMargins left="0.75" right="5.09375" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
